--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｏ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -829,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,268 +873,244 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,13 +1416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="16" width="3.375" style="1" customWidth="1"/>
@@ -1453,7 +1433,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="14.25" thickBot="1">
-      <c r="A1" s="27">
+      <c r="A1" s="17">
         <v>42139</v>
       </c>
       <c r="B1" t="s">
@@ -1461,43 +1441,43 @@
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="58"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="B3" s="39"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="85">
+      <c r="B3" s="60"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="47">
         <v>8</v>
       </c>
       <c r="E3" s="11">
@@ -1566,46 +1546,46 @@
       <c r="Z3" s="11">
         <v>30</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="21">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="8" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="86" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="76" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="46"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
@@ -1641,43 +1621,45 @@
       <c r="BH4" s="9"/>
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="35" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="73" t="s">
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="34" t="s">
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="74"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1713,37 +1695,37 @@
       <c r="BH5" s="2"/>
     </row>
     <row r="6" spans="1:60" s="3" customFormat="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="42"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="23"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -1779,37 +1761,37 @@
       <c r="BH6" s="2"/>
     </row>
     <row r="7" spans="1:60" s="3" customFormat="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="42"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="23"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1845,39 +1827,39 @@
       <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="42"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="23"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1913,37 +1895,37 @@
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="42"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="23"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -1979,37 +1961,37 @@
       <c r="BH9" s="2"/>
     </row>
     <row r="10" spans="1:60" s="3" customFormat="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="42"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -2045,37 +2027,37 @@
       <c r="BH10" s="2"/>
     </row>
     <row r="11" spans="1:60" s="3" customFormat="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="42"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2111,37 +2093,37 @@
       <c r="BH11" s="2"/>
     </row>
     <row r="12" spans="1:60" s="3" customFormat="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="42"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2177,37 +2159,37 @@
       <c r="BH12" s="2"/>
     </row>
     <row r="13" spans="1:60" s="3" customFormat="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="42"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2243,37 +2225,37 @@
       <c r="BH13" s="2"/>
     </row>
     <row r="14" spans="1:60" s="3" customFormat="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="42"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2309,37 +2291,37 @@
       <c r="BH14" s="2"/>
     </row>
     <row r="15" spans="1:60" s="3" customFormat="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="42"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2375,37 +2357,37 @@
       <c r="BH15" s="2"/>
     </row>
     <row r="16" spans="1:60" s="3" customFormat="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="42"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2441,37 +2423,37 @@
       <c r="BH16" s="2"/>
     </row>
     <row r="17" spans="1:60" s="3" customFormat="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="42"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2507,37 +2489,37 @@
       <c r="BH17" s="2"/>
     </row>
     <row r="18" spans="1:60" s="3" customFormat="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="42"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="23"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2573,37 +2555,37 @@
       <c r="BH18" s="2"/>
     </row>
     <row r="19" spans="1:60" s="3" customFormat="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="42"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="23"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2639,37 +2621,39 @@
       <c r="BH19" s="2"/>
     </row>
     <row r="20" spans="1:60" s="3" customFormat="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="42"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2705,39 +2689,39 @@
       <c r="BH20" s="2"/>
     </row>
     <row r="21" spans="1:60" s="3" customFormat="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="42"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2773,39 +2757,39 @@
       <c r="BH21" s="2"/>
     </row>
     <row r="22" spans="1:60" s="3" customFormat="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="42"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2841,39 +2825,39 @@
       <c r="BH22" s="2"/>
     </row>
     <row r="23" spans="1:60" s="3" customFormat="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="42"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2909,39 +2893,39 @@
       <c r="BH23" s="2"/>
     </row>
     <row r="24" spans="1:60" s="3" customFormat="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="42"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2977,37 +2961,37 @@
       <c r="BH24" s="2"/>
     </row>
     <row r="25" spans="1:60" s="3" customFormat="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="42"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3043,100 +3027,102 @@
       <c r="BH25" s="2"/>
     </row>
     <row r="26" spans="1:60">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="50"/>
+      <c r="D26" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:60">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="50"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:60" ht="14.25" thickBot="1">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="62"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="92"/>
     </row>
     <row r="29" spans="1:60">
       <c r="Y29" s="6"/>
@@ -3145,8 +3131,8 @@
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:60">
@@ -3160,17 +3146,17 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="55" t="s">
         <v>45</v>
       </c>
     </row>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$35:$AB$334</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$41:$AB$340</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -270,17 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>低い</t>
-    <rPh sb="0" eb="1">
-      <t>ヒク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>βでも</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールドマネージャーとフィールド一つ</t>
     <rPh sb="17" eb="18">
       <t>ヒト</t>
@@ -463,13 +452,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>さとさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>塚本</t>
     <rPh sb="0" eb="2">
       <t>ツカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられ、ダウン、無敵の遷移</t>
+  </si>
+  <si>
+    <t>さとさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床糸の実装</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッドとキーでそれぞれプレーヤー操作</t>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤの丸影</t>
+    <rPh sb="5" eb="6">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP（円形）バー実装</t>
+    <rPh sb="3" eb="5">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床糸の糸が道になるアニメ―ション</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +652,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -813,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,9 +938,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +1025,126 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,121 +1157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,15 +1470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH40"/>
+  <dimension ref="A1:BH46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="16" width="3.375" style="1" customWidth="1"/>
@@ -1395,51 +1489,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="14.25" thickBot="1">
-      <c r="A1" s="16">
-        <v>42146</v>
+      <c r="A1" s="15">
+        <v>42150</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="73">
+      <c r="B3" s="86"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="63">
         <v>8</v>
       </c>
       <c r="E3" s="10">
@@ -1508,46 +1602,46 @@
       <c r="Z3" s="10">
         <v>30</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="19">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="7" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="74" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="61"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -1583,14 +1677,14 @@
       <c r="BH4" s="8"/>
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
-      <c r="A5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="11"/>
@@ -1600,20 +1694,20 @@
       <c r="K5" s="11"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="59"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="59"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="22"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1649,14 +1743,14 @@
       <c r="BH5" s="2"/>
     </row>
     <row r="6" spans="1:60" s="3" customFormat="1">
-      <c r="A6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="11"/>
@@ -1666,20 +1760,20 @@
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="59"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="59"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="22"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -1715,14 +1809,14 @@
       <c r="BH6" s="2"/>
     </row>
     <row r="7" spans="1:60" s="3" customFormat="1">
-      <c r="A7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="75"/>
+      <c r="A7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="11"/>
@@ -1732,20 +1826,20 @@
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="59"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="59"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="22"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1781,14 +1875,14 @@
       <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1">
-      <c r="A8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="11"/>
@@ -1798,20 +1892,20 @@
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="59"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="52"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="59"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="22"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1847,14 +1941,14 @@
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
-      <c r="A9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="75"/>
+      <c r="A9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="11"/>
@@ -1864,20 +1958,20 @@
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="52"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="59"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="22"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -1912,202 +2006,370 @@
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
     </row>
-    <row r="10" spans="1:60">
-      <c r="B10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="75"/>
+    <row r="10" spans="1:60" s="3" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="19"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="22"/>
-    </row>
-    <row r="11" spans="1:60">
-      <c r="B11" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="75"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+    </row>
+    <row r="11" spans="1:60" s="3" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="19"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="1:60">
-      <c r="B12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="75"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+    </row>
+    <row r="12" spans="1:60" s="3" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="19"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="52"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="22"/>
-    </row>
-    <row r="13" spans="1:60">
-      <c r="B13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="75"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+    </row>
+    <row r="13" spans="1:60" s="3" customFormat="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="39"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="52"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="22"/>
-    </row>
-    <row r="14" spans="1:60">
-      <c r="B14" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="75"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+    </row>
+    <row r="14" spans="1:60" s="3" customFormat="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="65"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="39"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="52"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="22"/>
-    </row>
-    <row r="15" spans="1:60" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="75"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+    </row>
+    <row r="15" spans="1:60" s="3" customFormat="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="65"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="59"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="59"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="52"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="22"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2143,311 +2405,209 @@
       <c r="BH15" s="2"/>
     </row>
     <row r="16" spans="1:60">
-      <c r="B16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="75"/>
+      <c r="B16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="65"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="59"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="26"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="1:60">
-      <c r="B17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="75"/>
+      <c r="B17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="65"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="59"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="18"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="26"/>
-    </row>
-    <row r="18" spans="1:60" s="3" customFormat="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="75"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="1:60">
+      <c r="B18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="65"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="59"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="59"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-    </row>
-    <row r="19" spans="1:60" s="3" customFormat="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24" t="s">
-        <v>26</v>
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="1:60">
+      <c r="B19" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="65"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="59"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="59"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-    </row>
-    <row r="20" spans="1:60" s="3" customFormat="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="75"/>
+      <c r="AA19" s="21"/>
+    </row>
+    <row r="20" spans="1:60">
+      <c r="B20" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="65"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="59"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="59"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-    </row>
-    <row r="21" spans="1:60" s="3" customFormat="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="AA20" s="21"/>
+    </row>
+    <row r="21" spans="1:60" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="39"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="N21" s="37"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="59"/>
+      <c r="Q21" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="52"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="59"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="52"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="22"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2482,176 +2642,108 @@
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
-    <row r="22" spans="1:60" s="3" customFormat="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="75"/>
+    <row r="22" spans="1:60">
+      <c r="B22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="65"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="59"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="52"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-    </row>
-    <row r="23" spans="1:60" s="3" customFormat="1">
-      <c r="A23" s="17"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="25"/>
+    </row>
+    <row r="23" spans="1:60">
       <c r="B23" s="24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="65"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="59"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="52"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="25"/>
     </row>
     <row r="24" spans="1:60" s="3" customFormat="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="75"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="65"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="39"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="59"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="59"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="52"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="22"/>
+      <c r="AA24" s="21"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2687,39 +2779,39 @@
       <c r="BH24" s="2"/>
     </row>
     <row r="25" spans="1:60" s="3" customFormat="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="75"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="65"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="39"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="59"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="52"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="59"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="52"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="22"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -2755,39 +2847,39 @@
       <c r="BH25" s="2"/>
     </row>
     <row r="26" spans="1:60" s="3" customFormat="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="59"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="52"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="59"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="52"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="22"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2823,39 +2915,39 @@
       <c r="BH26" s="2"/>
     </row>
     <row r="27" spans="1:60" s="3" customFormat="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="75"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="65"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="59"/>
+      <c r="N27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="52"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="59"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="52"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="22"/>
+      <c r="AA27" s="21"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2891,39 +2983,39 @@
       <c r="BH27" s="2"/>
     </row>
     <row r="28" spans="1:60" s="3" customFormat="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="33" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="59"/>
+      <c r="N28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="52"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="59"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="52"/>
       <c r="Z28" s="13"/>
-      <c r="AA28" s="22"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2959,39 +3051,39 @@
       <c r="BH28" s="2"/>
     </row>
     <row r="29" spans="1:60" s="3" customFormat="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="75"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="65"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="K29" s="11"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="59"/>
+      <c r="N29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="52"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="59"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="52"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="22"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3027,39 +3119,39 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:60" s="3" customFormat="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="K30" s="38"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="59"/>
+      <c r="N30" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="59"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="52"/>
       <c r="Z30" s="13"/>
-      <c r="AA30" s="22"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3095,39 +3187,39 @@
       <c r="BH30" s="2"/>
     </row>
     <row r="31" spans="1:60" s="3" customFormat="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="K31" s="38"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="59"/>
+      <c r="N31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="52"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="59"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="52"/>
       <c r="Z31" s="13"/>
-      <c r="AA31" s="22"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3162,40 +3254,40 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
     </row>
-    <row r="32" spans="1:60" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="76"/>
+    <row r="32" spans="1:60" s="3" customFormat="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="65"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="11"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="59"/>
+      <c r="N32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="52"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="59"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="52"/>
       <c r="Z32" s="13"/>
-      <c r="AA32" s="22"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3230,149 +3322,557 @@
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
     </row>
-    <row r="33" spans="1:60" ht="14.25" thickBot="1">
-      <c r="B33" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="30"/>
-    </row>
-    <row r="34" spans="1:60" s="57" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="55"/>
+    <row r="33" spans="1:60" s="3" customFormat="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+    </row>
+    <row r="34" spans="1:60" s="3" customFormat="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="53"/>
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
       <c r="X34" s="53"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52"/>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52"/>
-      <c r="AN34" s="52"/>
-      <c r="AO34" s="52"/>
-      <c r="AP34" s="52"/>
-      <c r="AQ34" s="52"/>
-      <c r="AR34" s="52"/>
-      <c r="AS34" s="52"/>
-      <c r="AT34" s="52"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="52"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="52"/>
-      <c r="AY34" s="52"/>
-      <c r="AZ34" s="52"/>
-      <c r="BA34" s="52"/>
-      <c r="BB34" s="52"/>
-      <c r="BC34" s="52"/>
-      <c r="BD34" s="52"/>
-      <c r="BE34" s="52"/>
-      <c r="BF34" s="52"/>
-      <c r="BG34" s="52"/>
-      <c r="BH34" s="52"/>
-    </row>
-    <row r="35" spans="1:60">
-      <c r="B35" s="4" t="s">
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+    </row>
+    <row r="35" spans="1:60" s="3" customFormat="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+    </row>
+    <row r="36" spans="1:60" s="3" customFormat="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+    </row>
+    <row r="37" spans="1:60" s="3" customFormat="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+    </row>
+    <row r="38" spans="1:60" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+    </row>
+    <row r="39" spans="1:60" ht="14.25" thickBot="1">
+      <c r="B39" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="29"/>
+    </row>
+    <row r="40" spans="1:60" s="50" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="49"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="45"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="45"/>
+      <c r="AV40" s="45"/>
+      <c r="AW40" s="45"/>
+      <c r="AX40" s="45"/>
+      <c r="AY40" s="45"/>
+      <c r="AZ40" s="45"/>
+      <c r="BA40" s="45"/>
+      <c r="BB40" s="45"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="45"/>
+      <c r="BE40" s="45"/>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="45"/>
+      <c r="BH40" s="45"/>
+    </row>
+    <row r="41" spans="1:60">
+      <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I41" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="39" t="s">
+      <c r="K41" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-    </row>
-    <row r="36" spans="1:60">
-      <c r="B36" s="4" t="s">
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+    </row>
+    <row r="42" spans="1:60">
+      <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:60">
-      <c r="B37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:60">
-      <c r="B38" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:60">
-      <c r="B39" s="36" t="s">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:60">
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:60">
+      <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
-      <c r="B40" s="36" t="s">
-        <v>41</v>
+    <row r="45" spans="1:60">
+      <c r="B45" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60">
+      <c r="B46" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L41:N41"/>
     <mergeCell ref="D2:AA2"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$41:$AB$340</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$42:$AB$341</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -486,13 +486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パッドとキーでそれぞれプレーヤー操作</t>
-    <rPh sb="16" eb="18">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤの丸影</t>
     <rPh sb="5" eb="6">
       <t>マル</t>
@@ -533,10 +526,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
-    </rPh>
+    <t>プレーヤーを2体別々で操作</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤのテクスチャアニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1470,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH46"/>
+  <dimension ref="A1:BH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>4</v>
@@ -1744,7 +1747,7 @@
     </row>
     <row r="6" spans="1:60" s="3" customFormat="1">
       <c r="A6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>3</v>
@@ -1810,7 +1813,7 @@
     </row>
     <row r="7" spans="1:60" s="3" customFormat="1">
       <c r="A7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>37</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>30</v>
@@ -1942,10 +1945,10 @@
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="65"/>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="10" spans="1:60" s="3" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="73" t="s">
         <v>31</v>
@@ -2074,10 +2077,10 @@
     </row>
     <row r="11" spans="1:60" s="3" customFormat="1">
       <c r="A11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>63</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="65"/>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="12" spans="1:60" s="3" customFormat="1">
       <c r="A12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="65"/>
@@ -2206,10 +2209,12 @@
     </row>
     <row r="13" spans="1:60" s="3" customFormat="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="33"/>
+      <c r="B13" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="65"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2231,7 +2236,7 @@
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
-      <c r="Y13" s="52"/>
+      <c r="Y13" s="41"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="4"/>
@@ -2270,11 +2275,11 @@
     </row>
     <row r="14" spans="1:60" s="3" customFormat="1">
       <c r="A14" s="16"/>
-      <c r="B14" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>58</v>
+      <c r="B14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="13"/>
@@ -2294,12 +2299,10 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="53"/>
-      <c r="V14" s="38" t="s">
-        <v>41</v>
-      </c>
+      <c r="V14" s="53"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
-      <c r="Y14" s="52"/>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="4"/>
@@ -2338,11 +2341,11 @@
     </row>
     <row r="15" spans="1:60" s="3" customFormat="1">
       <c r="A15" s="16"/>
-      <c r="B15" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>8</v>
+      <c r="B15" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="13"/>
@@ -2362,12 +2365,10 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="53"/>
-      <c r="V15" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="V15" s="53"/>
       <c r="W15" s="53"/>
       <c r="X15" s="53"/>
-      <c r="Y15" s="52"/>
+      <c r="Y15" s="38"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="4"/>
@@ -2404,43 +2405,77 @@
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
     </row>
-    <row r="16" spans="1:60">
-      <c r="B16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>55</v>
+    <row r="16" spans="1:60" s="3" customFormat="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="52"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="21"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
     </row>
     <row r="17" spans="1:60">
-      <c r="B17" s="23" t="s">
-        <v>51</v>
+      <c r="B17" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>55</v>
@@ -2463,8 +2498,8 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="18"/>
-      <c r="V17" s="36" t="s">
-        <v>41</v>
+      <c r="V17" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="W17" s="62"/>
       <c r="X17" s="62"/>
@@ -2474,7 +2509,7 @@
     </row>
     <row r="18" spans="1:60">
       <c r="B18" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>55</v>
@@ -2496,7 +2531,7 @@
       <c r="R18" s="18"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="36"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="36" t="s">
         <v>41</v>
       </c>
@@ -2507,11 +2542,11 @@
       <c r="AA18" s="21"/>
     </row>
     <row r="19" spans="1:60">
-      <c r="B19" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>8</v>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="13"/>
@@ -2527,12 +2562,12 @@
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="41" t="s">
-        <v>56</v>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="W19" s="62"/>
       <c r="X19" s="62"/>
@@ -2541,11 +2576,11 @@
       <c r="AA19" s="21"/>
     </row>
     <row r="20" spans="1:60">
-      <c r="B20" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>54</v>
+      <c r="B20" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="13"/>
@@ -2561,93 +2596,60 @@
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="62"/>
-      <c r="R20" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="R20" s="62"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
+      <c r="V20" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="W20" s="62"/>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:60" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>9</v>
+    <row r="21" spans="1:60">
+      <c r="B21" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="52"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="52"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-    </row>
-    <row r="22" spans="1:60">
-      <c r="B22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>8</v>
+    </row>
+    <row r="22" spans="1:60" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="13"/>
@@ -2655,15 +2657,15 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41" t="s">
-        <v>47</v>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="R22" s="52"/>
       <c r="S22" s="13"/>
@@ -2673,12 +2675,45 @@
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
       <c r="Y22" s="52"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="25"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
     </row>
     <row r="23" spans="1:60">
       <c r="B23" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>8</v>
@@ -2710,10 +2745,9 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="25"/>
     </row>
-    <row r="24" spans="1:60" s="3" customFormat="1">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:60">
       <c r="B24" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>8</v>
@@ -2729,11 +2763,11 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="41" t="s">
-        <v>42</v>
-      </c>
+      <c r="O24" s="41"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="R24" s="52"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -2742,49 +2776,16 @@
       <c r="W24" s="53"/>
       <c r="X24" s="53"/>
       <c r="Y24" s="52"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="25"/>
     </row>
     <row r="25" spans="1:60" s="3" customFormat="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>13</v>
+      <c r="B25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="65"/>
       <c r="E25" s="13"/>
@@ -2793,15 +2794,15 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="39"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="52"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -2849,7 +2850,7 @@
     <row r="26" spans="1:60" s="3" customFormat="1">
       <c r="A26" s="16"/>
       <c r="B26" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>13</v>
@@ -2916,11 +2917,11 @@
     </row>
     <row r="27" spans="1:60" s="3" customFormat="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>9</v>
+      <c r="B27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="13"/>
@@ -2929,13 +2930,13 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="38"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="37"/>
+      <c r="O27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="52"/>
@@ -2984,11 +2985,11 @@
     </row>
     <row r="28" spans="1:60" s="3" customFormat="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>13</v>
+      <c r="B28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="13"/>
@@ -2997,10 +2998,10 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="38" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="37"/>
@@ -3052,10 +3053,10 @@
     </row>
     <row r="29" spans="1:60" s="3" customFormat="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="65"/>
@@ -3120,24 +3121,24 @@
     </row>
     <row r="30" spans="1:60" s="3" customFormat="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>32</v>
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="65"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="38" t="s">
-        <v>41</v>
+      <c r="N30" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
@@ -3189,15 +3190,15 @@
     <row r="31" spans="1:60" s="3" customFormat="1">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3256,23 +3257,23 @@
     </row>
     <row r="32" spans="1:60" s="3" customFormat="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>13</v>
+      <c r="B32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="37"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
       <c r="O32" s="37"/>
@@ -3325,7 +3326,7 @@
     <row r="33" spans="1:60" s="3" customFormat="1">
       <c r="A33" s="16"/>
       <c r="B33" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>13</v>
@@ -3336,7 +3337,7 @@
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -3392,8 +3393,8 @@
     </row>
     <row r="34" spans="1:60" s="3" customFormat="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="22" t="s">
-        <v>29</v>
+      <c r="B34" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>13</v>
@@ -3404,13 +3405,13 @@
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="37"/>
+      <c r="N34" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="39"/>
@@ -3460,25 +3461,25 @@
     </row>
     <row r="35" spans="1:60" s="3" customFormat="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>9</v>
+      <c r="B35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="38" t="s">
-        <v>47</v>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="40"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="39"/>
@@ -3529,10 +3530,10 @@
     <row r="36" spans="1:60" s="3" customFormat="1">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="13"/>
@@ -3597,10 +3598,10 @@
     <row r="37" spans="1:60" s="3" customFormat="1">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="13"/>
@@ -3617,7 +3618,7 @@
       <c r="N37" s="40"/>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="39"/>
       <c r="R37" s="52"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -3662,34 +3663,34 @@
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
     </row>
-    <row r="38" spans="1:60" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="38" spans="1:60" s="3" customFormat="1">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="40"/>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="37"/>
       <c r="R38" s="52"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="52"/>
+      <c r="U38" s="53"/>
       <c r="V38" s="53"/>
       <c r="W38" s="53"/>
       <c r="X38" s="53"/>
@@ -3730,149 +3731,217 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
     </row>
-    <row r="39" spans="1:60" ht="14.25" thickBot="1">
-      <c r="B39" s="72" t="s">
+    <row r="39" spans="1:60" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+    </row>
+    <row r="40" spans="1:60" ht="14.25" thickBot="1">
+      <c r="B40" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D40" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="29"/>
-    </row>
-    <row r="40" spans="1:60" s="50" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="45"/>
-      <c r="AQ40" s="45"/>
-      <c r="AR40" s="45"/>
-      <c r="AS40" s="45"/>
-      <c r="AT40" s="45"/>
-      <c r="AU40" s="45"/>
-      <c r="AV40" s="45"/>
-      <c r="AW40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="45"/>
-      <c r="BE40" s="45"/>
-      <c r="BF40" s="45"/>
-      <c r="BG40" s="45"/>
-      <c r="BH40" s="45"/>
-    </row>
-    <row r="41" spans="1:60">
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="29"/>
+    </row>
+    <row r="41" spans="1:60" s="50" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A41" s="49"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="45"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="45"/>
+      <c r="AV41" s="45"/>
+      <c r="AW41" s="45"/>
+      <c r="AX41" s="45"/>
+      <c r="AY41" s="45"/>
+      <c r="AZ41" s="45"/>
+      <c r="BA41" s="45"/>
+      <c r="BB41" s="45"/>
+      <c r="BC41" s="45"/>
+      <c r="BD41" s="45"/>
+      <c r="BE41" s="45"/>
+      <c r="BF41" s="45"/>
+      <c r="BG41" s="45"/>
+      <c r="BH41" s="45"/>
     </row>
     <row r="42" spans="1:60">
       <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+    </row>
+    <row r="43" spans="1:60">
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:60">
-      <c r="B43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:60">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:60">
+      <c r="B45" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:60">
-      <c r="B45" s="35" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:60">
       <c r="B46" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60">
+      <c r="B47" s="35" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L42:N42"/>
     <mergeCell ref="D2:AA2"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,16 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$17:$AB$342</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$18:$AB$343</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -647,6 +646,19 @@
     <t>βでほぼほぼ完成させよう</t>
     <rPh sb="6" eb="8">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物保持プレイヤとゴールの処理</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,12 +1375,102 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,48 +1489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,27 +1498,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,21 +1510,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,18 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1824,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH52"/>
+  <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1852,74 +1864,74 @@
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="84" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="86"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="102"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="47">
         <v>8</v>
       </c>
@@ -1989,104 +2001,104 @@
       <c r="Z3" s="8">
         <v>30</v>
       </c>
-      <c r="AA3" s="72">
+      <c r="AA3" s="63">
         <v>31</v>
       </c>
-      <c r="AB3" s="99">
+      <c r="AB3" s="83">
         <v>1</v>
       </c>
-      <c r="AC3" s="100">
+      <c r="AC3" s="84">
         <v>2</v>
       </c>
-      <c r="AD3" s="100">
+      <c r="AD3" s="84">
         <v>3</v>
       </c>
-      <c r="AE3" s="100">
+      <c r="AE3" s="84">
         <v>4</v>
       </c>
-      <c r="AF3" s="100">
+      <c r="AF3" s="84">
         <v>5</v>
       </c>
-      <c r="AG3" s="100">
+      <c r="AG3" s="84">
         <v>6</v>
       </c>
-      <c r="AH3" s="100">
+      <c r="AH3" s="84">
         <v>7</v>
       </c>
-      <c r="AI3" s="100">
+      <c r="AI3" s="84">
         <v>8</v>
       </c>
-      <c r="AJ3" s="100">
+      <c r="AJ3" s="84">
         <v>9</v>
       </c>
-      <c r="AK3" s="100">
+      <c r="AK3" s="84">
         <v>10</v>
       </c>
-      <c r="AL3" s="100">
+      <c r="AL3" s="84">
         <v>11</v>
       </c>
-      <c r="AM3" s="100">
+      <c r="AM3" s="84">
         <v>12</v>
       </c>
-      <c r="AN3" s="100">
+      <c r="AN3" s="84">
         <v>13</v>
       </c>
-      <c r="AO3" s="100">
+      <c r="AO3" s="84">
         <v>14</v>
       </c>
-      <c r="AP3" s="100">
+      <c r="AP3" s="84">
         <v>15</v>
       </c>
-      <c r="AQ3" s="100">
+      <c r="AQ3" s="84">
         <v>16</v>
       </c>
-      <c r="AR3" s="100">
+      <c r="AR3" s="84">
         <v>17</v>
       </c>
-      <c r="AS3" s="100">
+      <c r="AS3" s="84">
         <v>18</v>
       </c>
-      <c r="AT3" s="100">
+      <c r="AT3" s="84">
         <v>19</v>
       </c>
-      <c r="AU3" s="100">
+      <c r="AU3" s="84">
         <v>20</v>
       </c>
-      <c r="AV3" s="100">
+      <c r="AV3" s="84">
         <v>21</v>
       </c>
-      <c r="AW3" s="100">
+      <c r="AW3" s="84">
         <v>22</v>
       </c>
-      <c r="AX3" s="100">
+      <c r="AX3" s="84">
         <v>23</v>
       </c>
-      <c r="AY3" s="100">
+      <c r="AY3" s="84">
         <v>24</v>
       </c>
-      <c r="AZ3" s="100">
+      <c r="AZ3" s="84">
         <v>25</v>
       </c>
-      <c r="BA3" s="100">
+      <c r="BA3" s="84">
         <v>26</v>
       </c>
-      <c r="BB3" s="100">
+      <c r="BB3" s="84">
         <v>27</v>
       </c>
-      <c r="BC3" s="100">
+      <c r="BC3" s="84">
         <v>28</v>
       </c>
-      <c r="BD3" s="100">
+      <c r="BD3" s="84">
         <v>29</v>
       </c>
-      <c r="BE3" s="101">
+      <c r="BE3" s="85">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="6" customFormat="1" ht="48.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="48" t="s">
         <v>7</v>
       </c>
@@ -2118,45 +2130,45 @@
         <v>11</v>
       </c>
       <c r="Z4" s="45"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="112" t="s">
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="111" t="s">
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="110" t="s">
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="109" t="s">
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="88"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="76"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -2192,8 +2204,8 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="70"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="62"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
@@ -2207,8 +2219,8 @@
       <c r="AM5" s="37"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
@@ -2221,10 +2233,10 @@
       <c r="BA5" s="37"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11"/>
-      <c r="BD5" s="103" t="s">
+      <c r="BD5" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="BE5" s="104"/>
+      <c r="BE5" s="108"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
@@ -2258,8 +2270,8 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="70"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="62"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -2273,8 +2285,8 @@
       <c r="AM6" s="37"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
@@ -2287,8 +2299,8 @@
       <c r="BA6" s="37"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="106"/>
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="110"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
@@ -2324,8 +2336,8 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="37"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="70"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="62"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
@@ -2339,8 +2351,8 @@
       <c r="AM7" s="37"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
@@ -2353,8 +2365,8 @@
       <c r="BA7" s="37"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="106"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="110"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
@@ -2390,8 +2402,8 @@
       <c r="X8" s="38"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="70"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="62"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -2419,8 +2431,8 @@
       <c r="BA8" s="37"/>
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="106"/>
+      <c r="BD8" s="109"/>
+      <c r="BE8" s="110"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
@@ -2456,8 +2468,8 @@
       <c r="X9" s="38"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="70"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="62"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
@@ -2485,8 +2497,8 @@
       <c r="BA9" s="37"/>
       <c r="BB9" s="11"/>
       <c r="BC9" s="11"/>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="106"/>
+      <c r="BD9" s="109"/>
+      <c r="BE9" s="110"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
@@ -2494,10 +2506,10 @@
     <row r="10" spans="1:60" s="3" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="19" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="11"/>
@@ -2510,9 +2522,9 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="32"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -2522,8 +2534,8 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="70"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="62"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
@@ -2532,8 +2544,8 @@
       <c r="AH10" s="10"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="32"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
       <c r="AM10" s="37"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -2544,15 +2556,15 @@
       <c r="AT10" s="9"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
-      <c r="AW10" s="33"/>
+      <c r="AW10" s="30"/>
       <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="32"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
       <c r="BA10" s="37"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
-      <c r="BD10" s="105"/>
-      <c r="BE10" s="106"/>
+      <c r="BD10" s="109"/>
+      <c r="BE10" s="110"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
@@ -2560,7 +2572,7 @@
     <row r="11" spans="1:60" s="3" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>72</v>
@@ -2588,8 +2600,8 @@
       <c r="X11" s="38"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="70"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
@@ -2617,16 +2629,16 @@
       <c r="BA11" s="37"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11"/>
-      <c r="BD11" s="105"/>
-      <c r="BE11" s="106"/>
+      <c r="BD11" s="109"/>
+      <c r="BE11" s="110"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
     </row>
-    <row r="12" spans="1:60" s="3" customFormat="1" collapsed="1">
+    <row r="12" spans="1:60" s="3" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="19" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>72</v>
@@ -2642,9 +2654,9 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="37"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
@@ -2654,8 +2666,8 @@
       <c r="X12" s="38"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="70"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="62"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
@@ -2664,8 +2676,8 @@
       <c r="AH12" s="10"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="32"/>
       <c r="AM12" s="37"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
@@ -2677,25 +2689,25 @@
       <c r="AU12" s="10"/>
       <c r="AV12" s="10"/>
       <c r="AW12" s="33"/>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="32"/>
       <c r="BA12" s="37"/>
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
-      <c r="BD12" s="105"/>
-      <c r="BE12" s="106"/>
+      <c r="BD12" s="109"/>
+      <c r="BE12" s="110"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
-    <row r="13" spans="1:60" s="3" customFormat="1">
+    <row r="13" spans="1:60" s="3" customFormat="1" collapsed="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>63</v>
+      <c r="B13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="11"/>
@@ -2708,9 +2720,9 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="32"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2720,18 +2732,18 @@
       <c r="X13" s="38"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="70"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="62"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="34"/>
+      <c r="AF13" s="16"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="32"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
       <c r="AM13" s="37"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
@@ -2743,14 +2755,14 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AW13" s="33"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="32"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
       <c r="BA13" s="37"/>
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
-      <c r="BD13" s="105"/>
-      <c r="BE13" s="106"/>
+      <c r="BD13" s="109"/>
+      <c r="BE13" s="110"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
@@ -2758,9 +2770,9 @@
     <row r="14" spans="1:60" s="3" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="49"/>
@@ -2774,9 +2786,9 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="37"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -2786,8 +2798,8 @@
       <c r="X14" s="38"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="70"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="62"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
@@ -2796,8 +2808,8 @@
       <c r="AH14" s="10"/>
       <c r="AI14" s="34"/>
       <c r="AJ14" s="34"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="32"/>
       <c r="AM14" s="37"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
@@ -2809,25 +2821,25 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="33"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="32"/>
       <c r="BA14" s="37"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="106"/>
+      <c r="BD14" s="109"/>
+      <c r="BE14" s="110"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
     </row>
     <row r="15" spans="1:60" s="3" customFormat="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>72</v>
+      <c r="B15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="11"/>
@@ -2852,16 +2864,16 @@
       <c r="X15" s="38"/>
       <c r="Y15" s="37"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="70"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="16"/>
+      <c r="AF15" s="34"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="37"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
       <c r="AK15" s="37"/>
       <c r="AL15" s="37"/>
       <c r="AM15" s="37"/>
@@ -2881,8 +2893,8 @@
       <c r="BA15" s="37"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="106"/>
+      <c r="BD15" s="109"/>
+      <c r="BE15" s="110"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
@@ -2890,7 +2902,7 @@
     <row r="16" spans="1:60" s="3" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>72</v>
@@ -2918,8 +2930,8 @@
       <c r="X16" s="38"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="70"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="62"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -2947,19 +2959,19 @@
       <c r="BA16" s="37"/>
       <c r="BB16" s="11"/>
       <c r="BC16" s="11"/>
-      <c r="BD16" s="105"/>
-      <c r="BE16" s="106"/>
+      <c r="BD16" s="109"/>
+      <c r="BE16" s="110"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
     <row r="17" spans="1:60" s="3" customFormat="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>71</v>
+      <c r="B17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="11"/>
@@ -2984,12 +2996,12 @@
       <c r="X17" s="38"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="16"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="33"/>
@@ -3013,8 +3025,8 @@
       <c r="BA17" s="37"/>
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
-      <c r="BD17" s="105"/>
-      <c r="BE17" s="106"/>
+      <c r="BD17" s="109"/>
+      <c r="BE17" s="110"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
@@ -3022,7 +3034,7 @@
     <row r="18" spans="1:60" s="3" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>71</v>
@@ -3050,8 +3062,8 @@
       <c r="X18" s="38"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="70"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="62"/>
       <c r="AC18" s="31"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
@@ -3079,19 +3091,19 @@
       <c r="BA18" s="37"/>
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
-      <c r="BD18" s="105"/>
-      <c r="BE18" s="106"/>
+      <c r="BD18" s="109"/>
+      <c r="BE18" s="110"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
     <row r="19" spans="1:60" s="3" customFormat="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>63</v>
+      <c r="B19" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="11"/>
@@ -3116,12 +3128,12 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="33"/>
@@ -3145,19 +3157,19 @@
       <c r="BA19" s="37"/>
       <c r="BB19" s="11"/>
       <c r="BC19" s="11"/>
-      <c r="BD19" s="105"/>
-      <c r="BE19" s="106"/>
+      <c r="BD19" s="109"/>
+      <c r="BE19" s="110"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
     </row>
     <row r="20" spans="1:60" s="3" customFormat="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>72</v>
+      <c r="B20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="11"/>
@@ -3182,12 +3194,12 @@
       <c r="X20" s="38"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="33"/>
@@ -3211,8 +3223,8 @@
       <c r="BA20" s="37"/>
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
-      <c r="BD20" s="105"/>
-      <c r="BE20" s="106"/>
+      <c r="BD20" s="109"/>
+      <c r="BE20" s="110"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
@@ -3220,7 +3232,7 @@
     <row r="21" spans="1:60" s="3" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>72</v>
@@ -3248,8 +3260,8 @@
       <c r="X21" s="38"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="70"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="62"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -3277,151 +3289,149 @@
       <c r="BA21" s="37"/>
       <c r="BB21" s="11"/>
       <c r="BC21" s="11"/>
-      <c r="BD21" s="107"/>
-      <c r="BE21" s="108"/>
+      <c r="BD21" s="109"/>
+      <c r="BE21" s="110"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
-    <row r="22" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:60" s="3" customFormat="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="96"/>
-      <c r="BA22" s="96"/>
-      <c r="BB22" s="96"/>
-      <c r="BC22" s="96"/>
-      <c r="BD22" s="96"/>
-      <c r="BE22" s="97"/>
+      <c r="B22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="111"/>
+      <c r="BE22" s="112"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
     <row r="23" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="83"/>
-      <c r="BE23" s="89"/>
+      <c r="B23" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="105"/>
+      <c r="AM23" s="105"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="105"/>
+      <c r="AT23" s="105"/>
+      <c r="AU23" s="105"/>
+      <c r="AV23" s="105"/>
+      <c r="AW23" s="105"/>
+      <c r="AX23" s="105"/>
+      <c r="AY23" s="105"/>
+      <c r="AZ23" s="105"/>
+      <c r="BA23" s="105"/>
+      <c r="BB23" s="105"/>
+      <c r="BC23" s="105"/>
+      <c r="BD23" s="105"/>
+      <c r="BE23" s="106"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
     <row r="24" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>8</v>
+      <c r="B24" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="11"/>
@@ -3444,12 +3454,12 @@
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
-      <c r="Y24" s="16" t="s">
+      <c r="Y24" s="34" t="s">
         <v>65</v>
       </c>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="70"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="62"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -3477,19 +3487,19 @@
       <c r="BA24" s="37"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="89"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="77"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
     <row r="25" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>6</v>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="11"/>
@@ -3512,12 +3522,12 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
-      <c r="Y25" s="31" t="s">
+      <c r="Y25" s="16" t="s">
         <v>65</v>
       </c>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="70"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="62"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -3545,8 +3555,8 @@
       <c r="BA25" s="37"/>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
-      <c r="BD25" s="83"/>
-      <c r="BE25" s="89"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="77"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
@@ -3554,10 +3564,10 @@
     <row r="26" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="14"/>
       <c r="B26" s="59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="11"/>
@@ -3577,15 +3587,15 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="38"/>
-      <c r="V26" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="V26" s="38"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
-      <c r="Y26" s="37"/>
+      <c r="Y26" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="70"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="62"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -3613,79 +3623,83 @@
       <c r="BA26" s="37"/>
       <c r="BB26" s="11"/>
       <c r="BC26" s="11"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="89"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="77"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
-    <row r="27" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>42</v>
+    <row r="27" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="16"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="37"/>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
       <c r="AN27" s="11"/>
       <c r="AO27" s="11"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
       <c r="BB27" s="11"/>
       <c r="BC27" s="11"/>
-      <c r="BD27" s="36"/>
-      <c r="BE27" s="90"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="77"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
     </row>
     <row r="28" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B28" s="19" t="s">
-        <v>38</v>
+      <c r="B28" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>42</v>
@@ -3708,14 +3722,14 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="29" t="s">
-        <v>32</v>
+      <c r="V28" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="74"/>
+      <c r="AA28" s="65"/>
       <c r="AB28" s="49"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
@@ -3745,11 +3759,11 @@
       <c r="BB28" s="11"/>
       <c r="BC28" s="11"/>
       <c r="BD28" s="36"/>
-      <c r="BE28" s="90"/>
+      <c r="BE28" s="78"/>
     </row>
     <row r="29" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B29" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>42</v>
@@ -3771,7 +3785,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="29"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="29" t="s">
         <v>32</v>
       </c>
@@ -3779,7 +3793,7 @@
       <c r="X29" s="46"/>
       <c r="Y29" s="46"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="74"/>
+      <c r="AA29" s="65"/>
       <c r="AB29" s="49"/>
       <c r="AC29" s="36"/>
       <c r="AD29" s="36"/>
@@ -3809,14 +3823,14 @@
       <c r="BB29" s="11"/>
       <c r="BC29" s="11"/>
       <c r="BD29" s="36"/>
-      <c r="BE29" s="90"/>
+      <c r="BE29" s="78"/>
     </row>
     <row r="30" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B30" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>5</v>
+      <c r="B30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="11"/>
@@ -3832,18 +3846,18 @@
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="34" t="s">
-        <v>43</v>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="W30" s="46"/>
       <c r="X30" s="46"/>
       <c r="Y30" s="46"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="74"/>
+      <c r="AA30" s="65"/>
       <c r="AB30" s="49"/>
       <c r="AC30" s="36"/>
       <c r="AD30" s="36"/>
@@ -3873,14 +3887,14 @@
       <c r="BB30" s="11"/>
       <c r="BC30" s="11"/>
       <c r="BD30" s="36"/>
-      <c r="BE30" s="90"/>
+      <c r="BE30" s="78"/>
     </row>
     <row r="31" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B31" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>41</v>
+      <c r="B31" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="11"/>
@@ -3896,18 +3910,18 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="31" t="s">
-        <v>43</v>
-      </c>
+      <c r="R31" s="46"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
+      <c r="V31" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="W31" s="46"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="74"/>
+      <c r="AA31" s="65"/>
       <c r="AB31" s="49"/>
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
@@ -3937,49 +3951,48 @@
       <c r="BB31" s="11"/>
       <c r="BC31" s="11"/>
       <c r="BD31" s="36"/>
-      <c r="BE31" s="90"/>
+      <c r="BE31" s="78"/>
     </row>
-    <row r="32" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>6</v>
+    <row r="32" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B32" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="37"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="37"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="74"/>
+      <c r="AA32" s="65"/>
       <c r="AB32" s="49"/>
       <c r="AC32" s="36"/>
       <c r="AD32" s="36"/>
       <c r="AE32" s="36"/>
       <c r="AF32" s="36"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="36"/>
@@ -3992,8 +4005,8 @@
       <c r="AR32" s="36"/>
       <c r="AS32" s="36"/>
       <c r="AT32" s="36"/>
-      <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
@@ -4001,18 +4014,16 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="11"/>
       <c r="BC32" s="11"/>
-      <c r="BD32" s="83"/>
-      <c r="BE32" s="89"/>
-      <c r="BF32" s="2"/>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="2"/>
+      <c r="BD32" s="36"/>
+      <c r="BE32" s="78"/>
     </row>
-    <row r="33" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>5</v>
+    <row r="33" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="11"/>
@@ -4020,15 +4031,15 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="34"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34" t="s">
-        <v>34</v>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="R33" s="37"/>
       <c r="S33" s="11"/>
@@ -4038,8 +4049,8 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
       <c r="Y33" s="37"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="75"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="65"/>
       <c r="AB33" s="49"/>
       <c r="AC33" s="36"/>
       <c r="AD33" s="36"/>
@@ -4068,12 +4079,15 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="11"/>
       <c r="BC33" s="11"/>
-      <c r="BD33" s="36"/>
-      <c r="BE33" s="90"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
     </row>
     <row r="34" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B34" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>5</v>
@@ -4103,7 +4117,7 @@
       <c r="X34" s="38"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="12"/>
-      <c r="AA34" s="75"/>
+      <c r="AA34" s="66"/>
       <c r="AB34" s="49"/>
       <c r="AC34" s="36"/>
       <c r="AD34" s="36"/>
@@ -4133,12 +4147,11 @@
       <c r="BB34" s="11"/>
       <c r="BC34" s="11"/>
       <c r="BD34" s="36"/>
-      <c r="BE34" s="90"/>
+      <c r="BE34" s="78"/>
     </row>
-    <row r="35" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B35" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>5</v>
@@ -4154,11 +4167,11 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="34"/>
-      <c r="O35" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="O35" s="34"/>
       <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
+      <c r="Q35" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="R35" s="37"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -4167,8 +4180,8 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="37"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="74"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="66"/>
       <c r="AB35" s="49"/>
       <c r="AC35" s="36"/>
       <c r="AD35" s="36"/>
@@ -4197,19 +4210,16 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="11"/>
       <c r="BC35" s="11"/>
-      <c r="BD35" s="83"/>
-      <c r="BE35" s="89"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35" s="78"/>
     </row>
     <row r="36" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>8</v>
+      <c r="B36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="11"/>
@@ -4218,15 +4228,15 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="32"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
       <c r="R36" s="37"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -4236,7 +4246,7 @@
       <c r="X36" s="38"/>
       <c r="Y36" s="37"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="74"/>
+      <c r="AA36" s="65"/>
       <c r="AB36" s="49"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
@@ -4265,8 +4275,8 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
-      <c r="BD36" s="83"/>
-      <c r="BE36" s="89"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="77"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
@@ -4274,7 +4284,7 @@
     <row r="37" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A37" s="14"/>
       <c r="B37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>8</v>
@@ -4304,7 +4314,7 @@
       <c r="X37" s="38"/>
       <c r="Y37" s="37"/>
       <c r="Z37" s="11"/>
-      <c r="AA37" s="74"/>
+      <c r="AA37" s="65"/>
       <c r="AB37" s="49"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
@@ -4333,19 +4343,19 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="11"/>
       <c r="BC37" s="11"/>
-      <c r="BD37" s="83"/>
-      <c r="BE37" s="89"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="77"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
     </row>
     <row r="38" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>6</v>
+      <c r="B38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="11"/>
@@ -4354,13 +4364,13 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="31"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="31" t="s">
+      <c r="N38" s="30"/>
+      <c r="O38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="37"/>
@@ -4372,7 +4382,7 @@
       <c r="X38" s="38"/>
       <c r="Y38" s="37"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="74"/>
+      <c r="AA38" s="65"/>
       <c r="AB38" s="49"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
@@ -4401,19 +4411,19 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
-      <c r="BD38" s="83"/>
-      <c r="BE38" s="89"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="77"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>8</v>
+      <c r="B39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="11"/>
@@ -4422,10 +4432,10 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="31" t="s">
         <v>34</v>
       </c>
       <c r="O39" s="30"/>
@@ -4440,7 +4450,7 @@
       <c r="X39" s="38"/>
       <c r="Y39" s="37"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="74"/>
+      <c r="AA39" s="65"/>
       <c r="AB39" s="49"/>
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
@@ -4469,18 +4479,18 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="11"/>
       <c r="BC39" s="11"/>
-      <c r="BD39" s="83"/>
-      <c r="BE39" s="89"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="77"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
     </row>
     <row r="40" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="49"/>
@@ -4508,7 +4518,7 @@
       <c r="X40" s="38"/>
       <c r="Y40" s="37"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="74"/>
+      <c r="AA40" s="65"/>
       <c r="AB40" s="49"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
@@ -4537,32 +4547,32 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="11"/>
       <c r="BC40" s="11"/>
-      <c r="BD40" s="83"/>
-      <c r="BE40" s="89"/>
+      <c r="BD40" s="74"/>
+      <c r="BE40" s="77"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="2"/>
       <c r="BH40" s="2"/>
     </row>
     <row r="41" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>27</v>
+      <c r="B41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="31"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="31" t="s">
-        <v>32</v>
+      <c r="N41" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
@@ -4576,7 +4586,7 @@
       <c r="X41" s="38"/>
       <c r="Y41" s="37"/>
       <c r="Z41" s="11"/>
-      <c r="AA41" s="74"/>
+      <c r="AA41" s="65"/>
       <c r="AB41" s="49"/>
       <c r="AC41" s="36"/>
       <c r="AD41" s="36"/>
@@ -4605,8 +4615,8 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="11"/>
       <c r="BC41" s="11"/>
-      <c r="BD41" s="83"/>
-      <c r="BE41" s="89"/>
+      <c r="BD41" s="74"/>
+      <c r="BE41" s="77"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
       <c r="BH41" s="2"/>
@@ -4614,15 +4624,15 @@
     <row r="42" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="14"/>
       <c r="B42" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -4644,7 +4654,7 @@
       <c r="X42" s="38"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="74"/>
+      <c r="AA42" s="65"/>
       <c r="AB42" s="49"/>
       <c r="AC42" s="36"/>
       <c r="AD42" s="36"/>
@@ -4673,31 +4683,31 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="11"/>
       <c r="BC42" s="11"/>
-      <c r="BD42" s="83"/>
-      <c r="BE42" s="89"/>
+      <c r="BD42" s="74"/>
+      <c r="BE42" s="77"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
       <c r="BH42" s="2"/>
     </row>
     <row r="43" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="14"/>
-      <c r="B43" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>8</v>
+      <c r="B43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="30"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="29" t="s">
+      <c r="N43" s="31" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="30"/>
@@ -4712,7 +4722,7 @@
       <c r="X43" s="38"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="11"/>
-      <c r="AA43" s="74"/>
+      <c r="AA43" s="65"/>
       <c r="AB43" s="49"/>
       <c r="AC43" s="36"/>
       <c r="AD43" s="36"/>
@@ -4741,8 +4751,8 @@
       <c r="BA43" s="36"/>
       <c r="BB43" s="11"/>
       <c r="BC43" s="11"/>
-      <c r="BD43" s="83"/>
-      <c r="BE43" s="89"/>
+      <c r="BD43" s="74"/>
+      <c r="BE43" s="77"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
       <c r="BH43" s="2"/>
@@ -4750,7 +4760,7 @@
     <row r="44" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="14"/>
       <c r="B44" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>8</v>
@@ -4761,7 +4771,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -4780,7 +4790,7 @@
       <c r="X44" s="38"/>
       <c r="Y44" s="37"/>
       <c r="Z44" s="11"/>
-      <c r="AA44" s="74"/>
+      <c r="AA44" s="65"/>
       <c r="AB44" s="49"/>
       <c r="AC44" s="36"/>
       <c r="AD44" s="36"/>
@@ -4809,16 +4819,16 @@
       <c r="BA44" s="36"/>
       <c r="BB44" s="11"/>
       <c r="BC44" s="11"/>
-      <c r="BD44" s="83"/>
-      <c r="BE44" s="89"/>
+      <c r="BD44" s="74"/>
+      <c r="BE44" s="77"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
       <c r="BH44" s="2"/>
     </row>
     <row r="45" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="14"/>
-      <c r="B45" s="18" t="s">
-        <v>24</v>
+      <c r="B45" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>8</v>
@@ -4829,13 +4839,13 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="32"/>
@@ -4848,7 +4858,7 @@
       <c r="X45" s="38"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="74"/>
+      <c r="AA45" s="65"/>
       <c r="AB45" s="49"/>
       <c r="AC45" s="36"/>
       <c r="AD45" s="36"/>
@@ -4877,33 +4887,33 @@
       <c r="BA45" s="36"/>
       <c r="BB45" s="11"/>
       <c r="BC45" s="11"/>
-      <c r="BD45" s="83"/>
-      <c r="BE45" s="89"/>
+      <c r="BD45" s="74"/>
+      <c r="BE45" s="77"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
       <c r="BH45" s="2"/>
     </row>
     <row r="46" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>6</v>
+      <c r="B46" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="31" t="s">
-        <v>34</v>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="33"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="32"/>
@@ -4916,7 +4926,7 @@
       <c r="X46" s="38"/>
       <c r="Y46" s="37"/>
       <c r="Z46" s="11"/>
-      <c r="AA46" s="74"/>
+      <c r="AA46" s="65"/>
       <c r="AB46" s="49"/>
       <c r="AC46" s="36"/>
       <c r="AD46" s="36"/>
@@ -4924,11 +4934,11 @@
       <c r="AF46" s="36"/>
       <c r="AG46" s="10"/>
       <c r="AH46" s="10"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="30"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="32"/>
-      <c r="AM46" s="37"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="36"/>
+      <c r="AM46" s="36"/>
       <c r="AN46" s="11"/>
       <c r="AO46" s="11"/>
       <c r="AP46" s="36"/>
@@ -4945,8 +4955,8 @@
       <c r="BA46" s="36"/>
       <c r="BB46" s="11"/>
       <c r="BC46" s="11"/>
-      <c r="BD46" s="83"/>
-      <c r="BE46" s="89"/>
+      <c r="BD46" s="74"/>
+      <c r="BE46" s="77"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
       <c r="BH46" s="2"/>
@@ -4954,10 +4964,10 @@
     <row r="47" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="14"/>
       <c r="B47" s="17" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="11"/>
@@ -4984,7 +4994,7 @@
       <c r="X47" s="38"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="74"/>
+      <c r="AA47" s="65"/>
       <c r="AB47" s="49"/>
       <c r="AC47" s="36"/>
       <c r="AD47" s="36"/>
@@ -5006,15 +5016,15 @@
       <c r="AT47" s="36"/>
       <c r="AU47" s="10"/>
       <c r="AV47" s="10"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="30"/>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="37"/>
+      <c r="AW47" s="36"/>
+      <c r="AX47" s="36"/>
+      <c r="AY47" s="36"/>
+      <c r="AZ47" s="36"/>
+      <c r="BA47" s="36"/>
       <c r="BB47" s="11"/>
       <c r="BC47" s="11"/>
-      <c r="BD47" s="83"/>
-      <c r="BE47" s="89"/>
+      <c r="BD47" s="74"/>
+      <c r="BE47" s="77"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
       <c r="BH47" s="2"/>
@@ -5022,10 +5032,10 @@
     <row r="48" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="14"/>
       <c r="B48" s="17" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="11"/>
@@ -5042,7 +5052,7 @@
       <c r="N48" s="33"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
+      <c r="Q48" s="32"/>
       <c r="R48" s="37"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -5052,7 +5062,7 @@
       <c r="X48" s="38"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="11"/>
-      <c r="AA48" s="74"/>
+      <c r="AA48" s="65"/>
       <c r="AB48" s="49"/>
       <c r="AC48" s="36"/>
       <c r="AD48" s="36"/>
@@ -5063,7 +5073,7 @@
       <c r="AI48" s="33"/>
       <c r="AJ48" s="30"/>
       <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
+      <c r="AL48" s="32"/>
       <c r="AM48" s="37"/>
       <c r="AN48" s="11"/>
       <c r="AO48" s="11"/>
@@ -5077,50 +5087,50 @@
       <c r="AW48" s="33"/>
       <c r="AX48" s="30"/>
       <c r="AY48" s="30"/>
-      <c r="AZ48" s="30"/>
+      <c r="AZ48" s="32"/>
       <c r="BA48" s="37"/>
       <c r="BB48" s="11"/>
       <c r="BC48" s="11"/>
-      <c r="BD48" s="83"/>
-      <c r="BE48" s="89"/>
+      <c r="BD48" s="74"/>
+      <c r="BE48" s="77"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BH48" s="2"/>
     </row>
-    <row r="49" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="33"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
-      <c r="Q49" s="32"/>
+      <c r="Q49" s="30"/>
       <c r="R49" s="37"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="37"/>
+      <c r="U49" s="38"/>
       <c r="V49" s="38"/>
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="11"/>
-      <c r="AA49" s="74"/>
+      <c r="AA49" s="65"/>
       <c r="AB49" s="49"/>
       <c r="AC49" s="36"/>
       <c r="AD49" s="36"/>
@@ -5131,7 +5141,7 @@
       <c r="AI49" s="33"/>
       <c r="AJ49" s="30"/>
       <c r="AK49" s="30"/>
-      <c r="AL49" s="32"/>
+      <c r="AL49" s="30"/>
       <c r="AM49" s="37"/>
       <c r="AN49" s="11"/>
       <c r="AO49" s="11"/>
@@ -5145,136 +5155,204 @@
       <c r="AW49" s="33"/>
       <c r="AX49" s="30"/>
       <c r="AY49" s="30"/>
-      <c r="AZ49" s="32"/>
+      <c r="AZ49" s="30"/>
       <c r="BA49" s="37"/>
       <c r="BB49" s="11"/>
       <c r="BC49" s="11"/>
-      <c r="BD49" s="83"/>
-      <c r="BE49" s="89"/>
+      <c r="BD49" s="74"/>
+      <c r="BE49" s="77"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
       <c r="BH49" s="2"/>
     </row>
-    <row r="50" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B50" s="56" t="s">
+    <row r="50" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="36"/>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="36"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="30"/>
+      <c r="AY50" s="30"/>
+      <c r="AZ50" s="32"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="74"/>
+      <c r="BE50" s="77"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+    </row>
+    <row r="51" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B51" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D51" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="92"/>
-      <c r="AE50" s="92"/>
-      <c r="AF50" s="92"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53"/>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="54"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="52"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="22"/>
-      <c r="AV50" s="22"/>
-      <c r="AW50" s="52"/>
-      <c r="AX50" s="53"/>
-      <c r="AY50" s="53"/>
-      <c r="AZ50" s="53"/>
-      <c r="BA50" s="54"/>
-      <c r="BB50" s="35"/>
-      <c r="BC50" s="35"/>
-      <c r="BD50" s="92"/>
-      <c r="BE50" s="93"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="80"/>
+      <c r="AD51" s="80"/>
+      <c r="AE51" s="80"/>
+      <c r="AF51" s="80"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="52"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="54"/>
+      <c r="BB51" s="35"/>
+      <c r="BC51" s="35"/>
+      <c r="BD51" s="80"/>
+      <c r="BE51" s="81"/>
     </row>
-    <row r="51" spans="1:60" collapsed="1"/>
-    <row r="52" spans="1:60">
-      <c r="D52" s="16"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="29"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="16"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="31"/>
-      <c r="AS52" s="29"/>
-      <c r="AT52" s="16"/>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="31"/>
-      <c r="AW52" s="16"/>
-      <c r="AX52" s="34"/>
-      <c r="AY52" s="31"/>
-      <c r="AZ52" s="29"/>
-      <c r="BA52" s="16"/>
-      <c r="BB52" s="34"/>
-      <c r="BC52" s="31"/>
-      <c r="BD52" s="29"/>
-      <c r="BE52" s="16"/>
+    <row r="52" spans="1:60" collapsed="1"/>
+    <row r="53" spans="1:60">
+      <c r="D53" s="16"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="34"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="34"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="34"/>
+      <c r="AN53" s="31"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="16"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="31"/>
+      <c r="AS53" s="29"/>
+      <c r="AT53" s="16"/>
+      <c r="AU53" s="34"/>
+      <c r="AV53" s="31"/>
+      <c r="AW53" s="16"/>
+      <c r="AX53" s="34"/>
+      <c r="AY53" s="31"/>
+      <c r="AZ53" s="29"/>
+      <c r="BA53" s="16"/>
+      <c r="BB53" s="34"/>
+      <c r="BC53" s="31"/>
+      <c r="BD53" s="29"/>
+      <c r="BE53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5282,8 +5360,8 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="AB2:BE2"/>
-    <mergeCell ref="B22:BE22"/>
-    <mergeCell ref="BD5:BE21"/>
+    <mergeCell ref="B23:BE23"/>
+    <mergeCell ref="BD5:BE22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$18:$AB$343</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$23:$AB$344</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$51</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>野尻</t>
     <rPh sb="0" eb="2">
       <t>ノジリ</t>
@@ -621,21 +617,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>someday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出来るかな？</t>
-    <rPh sb="0" eb="2">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>休暇</t>
     <rPh sb="0" eb="2">
       <t>キュウカ</t>
@@ -643,13 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>βでほぼほぼ完成させよう</t>
-    <rPh sb="6" eb="8">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宝物保持プレイヤとゴールの処理</t>
     <rPh sb="0" eb="2">
       <t>タカラモノ</t>
@@ -659,6 +633,50 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最悪いらん</t>
+    <rPh sb="0" eb="2">
+      <t>サイアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドエディター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α＋＋では戦わせたいね！</t>
+    <rPh sb="5" eb="6">
+      <t>タタカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1462,6 +1480,24 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,24 +1544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH53"/>
+  <dimension ref="A1:BH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1857,81 +1875,81 @@
   <sheetData>
     <row r="1" spans="1:60" ht="14.25" thickBot="1">
       <c r="A1" s="13">
-        <v>42156</v>
+        <v>42160</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="B2" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="102"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="108"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="47">
         <v>8</v>
       </c>
@@ -2097,10 +2115,10 @@
     </row>
     <row r="4" spans="1:60" s="6" customFormat="1" ht="48.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="99"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
@@ -2109,7 +2127,7 @@
       <c r="I4" s="42"/>
       <c r="J4" s="41"/>
       <c r="K4" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -2118,7 +2136,7 @@
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
@@ -2127,7 +2145,7 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="45"/>
       <c r="AA4" s="64"/>
@@ -2136,7 +2154,7 @@
       <c r="AD4" s="69"/>
       <c r="AE4" s="68"/>
       <c r="AF4" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" s="70"/>
       <c r="AH4" s="70"/>
@@ -2145,7 +2163,7 @@
       <c r="AK4" s="71"/>
       <c r="AL4" s="72"/>
       <c r="AM4" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN4" s="73"/>
       <c r="AO4" s="73"/>
@@ -2154,7 +2172,7 @@
       <c r="AR4" s="69"/>
       <c r="AS4" s="68"/>
       <c r="AT4" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
@@ -2163,7 +2181,7 @@
       <c r="AY4" s="71"/>
       <c r="AZ4" s="72"/>
       <c r="BA4" s="87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BB4" s="73"/>
       <c r="BC4" s="73"/>
@@ -2175,10 +2193,10 @@
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="49"/>
@@ -2233,10 +2251,10 @@
       <c r="BA5" s="37"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11"/>
-      <c r="BD5" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE5" s="108"/>
+      <c r="BD5" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE5" s="92"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
@@ -2244,7 +2262,7 @@
     <row r="6" spans="1:60" s="3" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="57" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="49"/>
@@ -2299,18 +2317,16 @@
       <c r="BA6" s="37"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="110"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="94"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
     </row>
     <row r="7" spans="1:60" s="3" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="A7" s="14"/>
       <c r="B7" s="57" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="49"/>
@@ -2365,8 +2381,8 @@
       <c r="BA7" s="37"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
-      <c r="BD7" s="109"/>
-      <c r="BE7" s="110"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="94"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
@@ -2374,10 +2390,10 @@
     <row r="8" spans="1:60" s="3" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -2390,9 +2406,9 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -2410,11 +2426,11 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
       <c r="AP8" s="9"/>
@@ -2425,24 +2441,26 @@
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
       <c r="AW8" s="33"/>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="30"/>
-      <c r="AZ8" s="30"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
       <c r="BA8" s="37"/>
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
-      <c r="BD8" s="109"/>
-      <c r="BE8" s="110"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="94"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="A9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="49"/>
@@ -2473,14 +2491,14 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="31"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="16"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="9"/>
@@ -2497,8 +2515,8 @@
       <c r="BA9" s="37"/>
       <c r="BB9" s="11"/>
       <c r="BC9" s="11"/>
-      <c r="BD9" s="109"/>
-      <c r="BE9" s="110"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="94"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
@@ -2506,10 +2524,10 @@
     <row r="10" spans="1:60" s="3" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="19" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="11"/>
@@ -2535,18 +2553,18 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="65"/>
-      <c r="AB10" s="62"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="16"/>
+      <c r="AF10" s="37"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="37"/>
       <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
+      <c r="AM10" s="16"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="9"/>
@@ -2556,15 +2574,15 @@
       <c r="AT10" s="9"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="37"/>
       <c r="BA10" s="37"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
-      <c r="BD10" s="109"/>
-      <c r="BE10" s="110"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="94"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
@@ -2572,10 +2590,10 @@
     <row r="11" spans="1:60" s="3" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="11"/>
@@ -2605,14 +2623,14 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="16"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="16"/>
+      <c r="AI11" s="9"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="37"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
       <c r="AP11" s="9"/>
@@ -2629,8 +2647,8 @@
       <c r="BA11" s="37"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11"/>
-      <c r="BD11" s="109"/>
-      <c r="BE11" s="110"/>
+      <c r="BD11" s="93"/>
+      <c r="BE11" s="94"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
@@ -2638,10 +2656,10 @@
     <row r="12" spans="1:60" s="3" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="11"/>
@@ -2671,14 +2689,14 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="9"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
-      <c r="AI12" s="16"/>
+      <c r="AI12" s="9"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="37"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="9"/>
@@ -2695,19 +2713,19 @@
       <c r="BA12" s="37"/>
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
-      <c r="BD12" s="109"/>
-      <c r="BE12" s="110"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="94"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
-    <row r="13" spans="1:60" s="3" customFormat="1" collapsed="1">
+    <row r="13" spans="1:60" s="3" customFormat="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>72</v>
+      <c r="B13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="11"/>
@@ -2720,9 +2738,9 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2737,14 +2755,14 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="16"/>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="9"/>
@@ -2755,25 +2773,25 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AW13" s="33"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
       <c r="BA13" s="37"/>
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
-      <c r="BD13" s="109"/>
-      <c r="BE13" s="110"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="94"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
     </row>
     <row r="14" spans="1:60" s="3" customFormat="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>63</v>
+      <c r="B14" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="11"/>
@@ -2786,9 +2804,9 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="32"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -2803,14 +2821,14 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="34"/>
+      <c r="AF14" s="31"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="37"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="9"/>
@@ -2821,14 +2839,14 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="33"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="32"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
       <c r="BA14" s="37"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
-      <c r="BD14" s="109"/>
-      <c r="BE14" s="110"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="94"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
@@ -2838,8 +2856,8 @@
       <c r="B15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>63</v>
+      <c r="C15" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="11"/>
@@ -2874,9 +2892,9 @@
       <c r="AH15" s="10"/>
       <c r="AI15" s="34"/>
       <c r="AJ15" s="34"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="9"/>
@@ -2893,8 +2911,8 @@
       <c r="BA15" s="37"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="109"/>
-      <c r="BE15" s="110"/>
+      <c r="BD15" s="93"/>
+      <c r="BE15" s="94"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
@@ -2902,10 +2920,10 @@
     <row r="16" spans="1:60" s="3" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="19" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="11"/>
@@ -2938,8 +2956,8 @@
       <c r="AF16" s="16"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="37"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
       <c r="AK16" s="37"/>
       <c r="AL16" s="37"/>
       <c r="AM16" s="37"/>
@@ -2952,26 +2970,26 @@
       <c r="AT16" s="9"/>
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="37"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
       <c r="AY16" s="37"/>
       <c r="AZ16" s="37"/>
       <c r="BA16" s="37"/>
       <c r="BB16" s="11"/>
       <c r="BC16" s="11"/>
-      <c r="BD16" s="109"/>
-      <c r="BE16" s="110"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="94"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
-    <row r="17" spans="1:60" s="3" customFormat="1">
+    <row r="17" spans="1:60" s="3" customFormat="1" collapsed="1">
       <c r="A17" s="14"/>
       <c r="B17" s="19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="11"/>
@@ -3004,8 +3022,8 @@
       <c r="AF17" s="16"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="37"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
       <c r="AK17" s="37"/>
       <c r="AL17" s="37"/>
       <c r="AM17" s="37"/>
@@ -3025,18 +3043,18 @@
       <c r="BA17" s="37"/>
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
-      <c r="BD17" s="109"/>
-      <c r="BE17" s="110"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="94"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
     <row r="18" spans="1:60" s="3" customFormat="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="49"/>
@@ -3064,14 +3082,16 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="65"/>
       <c r="AB18" s="62"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="37"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
       <c r="AK18" s="37"/>
       <c r="AL18" s="37"/>
       <c r="AM18" s="37"/>
@@ -3091,19 +3111,19 @@
       <c r="BA18" s="37"/>
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
-      <c r="BD18" s="109"/>
-      <c r="BE18" s="110"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="94"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
     <row r="19" spans="1:60" s="3" customFormat="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>71</v>
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="11"/>
@@ -3116,9 +3136,9 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="37"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3130,16 +3150,16 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="65"/>
       <c r="AB19" s="62"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="34"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="32"/>
       <c r="AM19" s="37"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
@@ -3151,14 +3171,14 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AW19" s="33"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="32"/>
       <c r="BA19" s="37"/>
       <c r="BB19" s="11"/>
       <c r="BC19" s="11"/>
-      <c r="BD19" s="109"/>
-      <c r="BE19" s="110"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="94"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
@@ -3166,10 +3186,10 @@
     <row r="20" spans="1:60" s="3" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="11"/>
@@ -3202,11 +3222,11 @@
       <c r="AF20" s="34"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="9"/>
@@ -3223,19 +3243,19 @@
       <c r="BA20" s="37"/>
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
-      <c r="BD20" s="109"/>
-      <c r="BE20" s="110"/>
+      <c r="BD20" s="93"/>
+      <c r="BE20" s="94"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
     </row>
     <row r="21" spans="1:60" s="3" customFormat="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>72</v>
+      <c r="B21" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="11"/>
@@ -3262,10 +3282,12 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="62"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="33"/>
@@ -3289,19 +3311,19 @@
       <c r="BA21" s="37"/>
       <c r="BB21" s="11"/>
       <c r="BC21" s="11"/>
-      <c r="BD21" s="109"/>
-      <c r="BE21" s="110"/>
+      <c r="BD21" s="93"/>
+      <c r="BE21" s="94"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
     <row r="22" spans="1:60" s="3" customFormat="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>72</v>
+      <c r="B22" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="11"/>
@@ -3328,10 +3350,12 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="62"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="33"/>
@@ -3355,151 +3379,151 @@
       <c r="BA22" s="37"/>
       <c r="BB22" s="11"/>
       <c r="BC22" s="11"/>
-      <c r="BD22" s="111"/>
-      <c r="BE22" s="112"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="94"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
-    <row r="23" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:60" s="3" customFormat="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="105"/>
-      <c r="AI23" s="105"/>
-      <c r="AJ23" s="105"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="105"/>
-      <c r="AM23" s="105"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="105"/>
-      <c r="AR23" s="105"/>
-      <c r="AS23" s="105"/>
-      <c r="AT23" s="105"/>
-      <c r="AU23" s="105"/>
-      <c r="AV23" s="105"/>
-      <c r="AW23" s="105"/>
-      <c r="AX23" s="105"/>
-      <c r="AY23" s="105"/>
-      <c r="AZ23" s="105"/>
-      <c r="BA23" s="105"/>
-      <c r="BB23" s="105"/>
-      <c r="BC23" s="105"/>
-      <c r="BD23" s="105"/>
-      <c r="BE23" s="106"/>
+      <c r="B23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="96"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
     <row r="24" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="34" t="s">
+      <c r="B24" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="74"/>
-      <c r="BE24" s="77"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="111"/>
+      <c r="BB24" s="111"/>
+      <c r="BC24" s="111"/>
+      <c r="BD24" s="111"/>
+      <c r="BE24" s="112"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
     <row r="25" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>8</v>
+      <c r="B25" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="11"/>
@@ -3522,8 +3546,8 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
-      <c r="Y25" s="16" t="s">
-        <v>65</v>
+      <c r="Y25" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="Z25" s="11"/>
       <c r="AA25" s="65"/>
@@ -3563,11 +3587,11 @@
     </row>
     <row r="26" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>6</v>
+      <c r="C26" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="11"/>
@@ -3590,8 +3614,8 @@
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
-      <c r="Y26" s="31" t="s">
-        <v>65</v>
+      <c r="Y26" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="Z26" s="11"/>
       <c r="AA26" s="65"/>
@@ -3632,10 +3656,10 @@
     <row r="27" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="14"/>
       <c r="B27" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="11"/>
@@ -3655,12 +3679,12 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
-      <c r="Y27" s="37"/>
+      <c r="Y27" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="Z27" s="11"/>
       <c r="AA27" s="65"/>
       <c r="AB27" s="62"/>
@@ -3697,76 +3721,80 @@
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
     </row>
-    <row r="28" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>42</v>
+    <row r="28" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="16"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="37"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="65"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="11"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
       <c r="BB28" s="11"/>
       <c r="BC28" s="11"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="78"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="77"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
     </row>
     <row r="29" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="11"/>
@@ -3786,8 +3814,8 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="29" t="s">
-        <v>32</v>
+      <c r="V29" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="W29" s="46"/>
       <c r="X29" s="46"/>
@@ -3830,7 +3858,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="11"/>
@@ -3849,9 +3877,9 @@
       <c r="R30" s="16"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="29"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W30" s="46"/>
       <c r="X30" s="46"/>
@@ -3890,11 +3918,11 @@
       <c r="BE30" s="78"/>
     </row>
     <row r="31" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>5</v>
+      <c r="C31" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="11"/>
@@ -3910,12 +3938,12 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
+      <c r="R31" s="16"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="34" t="s">
-        <v>43</v>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="W31" s="46"/>
       <c r="X31" s="46"/>
@@ -3954,11 +3982,11 @@
       <c r="BE31" s="78"/>
     </row>
     <row r="32" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58" t="s">
-        <v>41</v>
+      <c r="C32" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="11"/>
@@ -3974,13 +4002,13 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="46"/>
-      <c r="R32" s="31" t="s">
-        <v>43</v>
-      </c>
+      <c r="R32" s="46"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
+      <c r="V32" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="W32" s="46"/>
       <c r="X32" s="46"/>
       <c r="Y32" s="46"/>
@@ -4017,38 +4045,37 @@
       <c r="BD32" s="36"/>
       <c r="BE32" s="78"/>
     </row>
-    <row r="33" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>6</v>
+    <row r="33" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B33" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="37"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="37"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="65"/>
       <c r="AB33" s="49"/>
@@ -4056,8 +4083,8 @@
       <c r="AD33" s="36"/>
       <c r="AE33" s="36"/>
       <c r="AF33" s="36"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="36"/>
@@ -4070,8 +4097,8 @@
       <c r="AR33" s="36"/>
       <c r="AS33" s="36"/>
       <c r="AT33" s="36"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
@@ -4079,17 +4106,15 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="11"/>
       <c r="BC33" s="11"/>
-      <c r="BD33" s="74"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
+      <c r="BD33" s="36"/>
+      <c r="BE33" s="78"/>
     </row>
-    <row r="34" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="27" t="s">
+    <row r="34" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="49"/>
@@ -4098,15 +4123,15 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="34"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34" t="s">
-        <v>34</v>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="R34" s="37"/>
       <c r="S34" s="11"/>
@@ -4116,8 +4141,8 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="37"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="66"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="65"/>
       <c r="AB34" s="49"/>
       <c r="AC34" s="36"/>
       <c r="AD34" s="36"/>
@@ -4146,15 +4171,18 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="11"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="78"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="77"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
     </row>
     <row r="35" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B35" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="11"/>
@@ -4170,7 +4198,7 @@
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="37"/>
       <c r="S35" s="11"/>
@@ -4213,13 +4241,12 @@
       <c r="BD35" s="36"/>
       <c r="BE35" s="78"/>
     </row>
-    <row r="36" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B36" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="11"/>
@@ -4232,11 +4259,11 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="34"/>
-      <c r="O36" s="34" t="s">
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
       <c r="R36" s="37"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -4245,8 +4272,8 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="37"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="65"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="66"/>
       <c r="AB36" s="49"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
@@ -4275,19 +4302,16 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
-      <c r="BD36" s="74"/>
-      <c r="BE36" s="77"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="78"/>
     </row>
     <row r="37" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>8</v>
+      <c r="B37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="11"/>
@@ -4296,15 +4320,15 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="32"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
       <c r="R37" s="37"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -4352,10 +4376,10 @@
     <row r="38" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A38" s="14"/>
       <c r="B38" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="11"/>
@@ -4369,7 +4393,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="30"/>
       <c r="O38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P38" s="30"/>
       <c r="Q38" s="32"/>
@@ -4419,11 +4443,11 @@
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>6</v>
+      <c r="B39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="11"/>
@@ -4432,13 +4456,13 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="31"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="O39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="P39" s="30"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="37"/>
@@ -4487,11 +4511,11 @@
     </row>
     <row r="40" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>8</v>
+      <c r="B40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="11"/>
@@ -4500,11 +4524,11 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="16" t="s">
-        <v>34</v>
+      <c r="N40" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
@@ -4555,11 +4579,11 @@
     </row>
     <row r="41" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>8</v>
+      <c r="B41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="11"/>
@@ -4572,7 +4596,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
@@ -4623,24 +4647,24 @@
     </row>
     <row r="42" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>27</v>
+      <c r="B42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="31"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="31" t="s">
-        <v>32</v>
+      <c r="N42" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
@@ -4692,15 +4716,15 @@
     <row r="43" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="14"/>
       <c r="B43" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="33"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -4708,7 +4732,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
@@ -4759,24 +4783,24 @@
     </row>
     <row r="44" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>8</v>
+      <c r="B44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="30"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="30"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="29" t="s">
-        <v>32</v>
+      <c r="N44" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
@@ -4828,10 +4852,10 @@
     <row r="45" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="14"/>
       <c r="B45" s="19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="11"/>
@@ -4839,12 +4863,12 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
@@ -4895,11 +4919,11 @@
     </row>
     <row r="46" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="18" t="s">
-        <v>24</v>
+      <c r="B46" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="11"/>
@@ -4907,13 +4931,13 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="32"/>
@@ -4963,25 +4987,25 @@
     </row>
     <row r="47" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="14"/>
-      <c r="B47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>6</v>
+      <c r="B47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="31" t="s">
-        <v>34</v>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="33"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="32"/>
@@ -5002,11 +5026,11 @@
       <c r="AF47" s="36"/>
       <c r="AG47" s="10"/>
       <c r="AH47" s="10"/>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="37"/>
+      <c r="AI47" s="36"/>
+      <c r="AJ47" s="36"/>
+      <c r="AK47" s="36"/>
+      <c r="AL47" s="36"/>
+      <c r="AM47" s="36"/>
       <c r="AN47" s="11"/>
       <c r="AO47" s="11"/>
       <c r="AP47" s="36"/>
@@ -5032,10 +5056,10 @@
     <row r="48" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="14"/>
       <c r="B48" s="17" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="11"/>
@@ -5045,7 +5069,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -5084,11 +5108,11 @@
       <c r="AT48" s="36"/>
       <c r="AU48" s="10"/>
       <c r="AV48" s="10"/>
-      <c r="AW48" s="33"/>
-      <c r="AX48" s="30"/>
-      <c r="AY48" s="30"/>
-      <c r="AZ48" s="32"/>
-      <c r="BA48" s="37"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
       <c r="BB48" s="11"/>
       <c r="BC48" s="11"/>
       <c r="BD48" s="74"/>
@@ -5100,10 +5124,10 @@
     <row r="49" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="11"/>
@@ -5113,14 +5137,14 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="33"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="37"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -5141,7 +5165,7 @@
       <c r="AI49" s="33"/>
       <c r="AJ49" s="30"/>
       <c r="AK49" s="30"/>
-      <c r="AL49" s="30"/>
+      <c r="AL49" s="32"/>
       <c r="AM49" s="37"/>
       <c r="AN49" s="11"/>
       <c r="AO49" s="11"/>
@@ -5155,7 +5179,7 @@
       <c r="AW49" s="33"/>
       <c r="AX49" s="30"/>
       <c r="AY49" s="30"/>
-      <c r="AZ49" s="30"/>
+      <c r="AZ49" s="32"/>
       <c r="BA49" s="37"/>
       <c r="BB49" s="11"/>
       <c r="BC49" s="11"/>
@@ -5165,34 +5189,34 @@
       <c r="BG49" s="2"/>
       <c r="BH49" s="2"/>
     </row>
-    <row r="50" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="50"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="49"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="33"/>
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
-      <c r="Q50" s="32"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="37"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="37"/>
+      <c r="U50" s="38"/>
       <c r="V50" s="38"/>
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
@@ -5209,7 +5233,7 @@
       <c r="AI50" s="33"/>
       <c r="AJ50" s="30"/>
       <c r="AK50" s="30"/>
-      <c r="AL50" s="32"/>
+      <c r="AL50" s="30"/>
       <c r="AM50" s="37"/>
       <c r="AN50" s="11"/>
       <c r="AO50" s="11"/>
@@ -5223,7 +5247,7 @@
       <c r="AW50" s="33"/>
       <c r="AX50" s="30"/>
       <c r="AY50" s="30"/>
-      <c r="AZ50" s="32"/>
+      <c r="AZ50" s="30"/>
       <c r="BA50" s="37"/>
       <c r="BB50" s="11"/>
       <c r="BC50" s="11"/>
@@ -5233,135 +5257,202 @@
       <c r="BG50" s="2"/>
       <c r="BH50" s="2"/>
     </row>
-    <row r="51" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B51" s="56" t="s">
+    <row r="51" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="65"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="37"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="36"/>
+      <c r="AR51" s="36"/>
+      <c r="AS51" s="36"/>
+      <c r="AT51" s="36"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="33"/>
+      <c r="AX51" s="30"/>
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="74"/>
+      <c r="BE51" s="77"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+    </row>
+    <row r="52" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B52" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="80"/>
-      <c r="AD51" s="80"/>
-      <c r="AE51" s="80"/>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53"/>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="54"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="52"/>
-      <c r="AQ51" s="53"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21"/>
-      <c r="AU51" s="22"/>
-      <c r="AV51" s="22"/>
-      <c r="AW51" s="52"/>
-      <c r="AX51" s="53"/>
-      <c r="AY51" s="53"/>
-      <c r="AZ51" s="53"/>
-      <c r="BA51" s="54"/>
-      <c r="BB51" s="35"/>
-      <c r="BC51" s="35"/>
-      <c r="BD51" s="80"/>
-      <c r="BE51" s="81"/>
+      <c r="C52" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="79"/>
+      <c r="AC52" s="80"/>
+      <c r="AD52" s="80"/>
+      <c r="AE52" s="80"/>
+      <c r="AF52" s="80"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="53"/>
+      <c r="AK52" s="53"/>
+      <c r="AL52" s="53"/>
+      <c r="AM52" s="54"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="52"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="22"/>
+      <c r="AV52" s="22"/>
+      <c r="AW52" s="52"/>
+      <c r="AX52" s="53"/>
+      <c r="AY52" s="53"/>
+      <c r="AZ52" s="53"/>
+      <c r="BA52" s="54"/>
+      <c r="BB52" s="35"/>
+      <c r="BC52" s="35"/>
+      <c r="BD52" s="80"/>
+      <c r="BE52" s="81"/>
     </row>
-    <row r="52" spans="1:60" collapsed="1"/>
-    <row r="53" spans="1:60">
-      <c r="D53" s="16"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="16"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="16"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="16"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="31"/>
-      <c r="AS53" s="29"/>
-      <c r="AT53" s="16"/>
-      <c r="AU53" s="34"/>
-      <c r="AV53" s="31"/>
-      <c r="AW53" s="16"/>
-      <c r="AX53" s="34"/>
-      <c r="AY53" s="31"/>
-      <c r="AZ53" s="29"/>
-      <c r="BA53" s="16"/>
-      <c r="BB53" s="34"/>
-      <c r="BC53" s="31"/>
-      <c r="BD53" s="29"/>
-      <c r="BE53" s="16"/>
+    <row r="53" spans="1:60" collapsed="1"/>
+    <row r="54" spans="1:60">
+      <c r="D54" s="16"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="16"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="31"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="16"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="31"/>
+      <c r="AS54" s="29"/>
+      <c r="AT54" s="16"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="31"/>
+      <c r="AW54" s="16"/>
+      <c r="AX54" s="34"/>
+      <c r="AY54" s="31"/>
+      <c r="AZ54" s="29"/>
+      <c r="BA54" s="16"/>
+      <c r="BB54" s="34"/>
+      <c r="BC54" s="31"/>
+      <c r="BD54" s="29"/>
+      <c r="BE54" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D2:AA2"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="AB2:BE2"/>
-    <mergeCell ref="B23:BE23"/>
-    <mergeCell ref="BD5:BE22"/>
+    <mergeCell ref="B24:BE24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$23:$AB$344</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$25:$AB$346</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$53</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>プレイヤ攻撃</t>
     <rPh sb="4" eb="6">
@@ -476,6 +476,226 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プレイヤのHPで自身の表示を変える</t>
+    <rPh sb="8" eb="10">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUのAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの色変更</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形との当たり判定(三角)</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸と床の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野尻</t>
+    <rPh sb="0" eb="2">
+      <t>ノジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版とβ版のあいだ！</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α＋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α＋＋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塚本</t>
+    <rPh sb="0" eb="2">
+      <t>ツカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物保持プレイヤとゴールの処理</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最悪いらん</t>
+    <rPh sb="0" eb="2">
+      <t>サイアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドエディター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α＋＋では戦わせたいね！</t>
+    <rPh sb="5" eb="6">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リハ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらないかも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーコンフィング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野尻</t>
+    <rPh sb="0" eb="2">
+      <t>ノジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>プレイヤ各糸用意</t>
     <rPh sb="4" eb="5">
       <t>カク</t>
@@ -489,86 +709,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤのHPで自身の表示を変える</t>
-    <rPh sb="8" eb="10">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オプション画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラマネージャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPUのAI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラの色変更</t>
-    <rPh sb="4" eb="5">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地形との当たり判定(三角)</t>
-    <rPh sb="0" eb="2">
-      <t>チケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>糸と床の当たり判定</t>
+    <t>さとさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸：通常</t>
     <rPh sb="0" eb="1">
       <t>イト</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>野尻</t>
-    <rPh sb="0" eb="2">
-      <t>ノジリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>６月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,107 +726,6 @@
     <t>完</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α版とβ版のあいだ！</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α＋</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α＋＋</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレゼン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>β</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さとさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塚本</t>
-    <rPh sb="0" eb="2">
-      <t>ツカモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休暇</t>
-    <rPh sb="0" eb="2">
-      <t>キュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宝物保持プレイヤとゴールの処理</t>
-    <rPh sb="0" eb="2">
-      <t>タカラモノ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最悪いらん</t>
-    <rPh sb="0" eb="2">
-      <t>サイアク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールドエディター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半</t>
-    <rPh sb="0" eb="1">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>できる？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α＋＋では戦わせたいね！</t>
-    <rPh sb="5" eb="6">
-      <t>タタカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,7 +859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,30 +908,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3F3F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8989"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC1C1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1206,7 +1231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,35 +1493,29 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH54"/>
+  <dimension ref="A1:BH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1878,78 +1897,78 @@
         <v>42160</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="B2" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="108"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="105"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="105"/>
+      <c r="BE2" s="106"/>
     </row>
     <row r="3" spans="1:60">
-      <c r="B3" s="101"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="47">
         <v>8</v>
       </c>
@@ -2115,8 +2134,8 @@
     </row>
     <row r="4" spans="1:60" s="6" customFormat="1" ht="48.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="48" t="s">
         <v>6</v>
       </c>
@@ -2153,8 +2172,8 @@
       <c r="AC4" s="68"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="68"/>
-      <c r="AF4" s="90" t="s">
-        <v>66</v>
+      <c r="AF4" s="94" t="s">
+        <v>65</v>
       </c>
       <c r="AG4" s="70"/>
       <c r="AH4" s="70"/>
@@ -2162,8 +2181,8 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="71"/>
       <c r="AL4" s="72"/>
-      <c r="AM4" s="89" t="s">
-        <v>67</v>
+      <c r="AM4" s="93" t="s">
+        <v>66</v>
       </c>
       <c r="AN4" s="73"/>
       <c r="AO4" s="73"/>
@@ -2171,32 +2190,36 @@
       <c r="AQ4" s="68"/>
       <c r="AR4" s="69"/>
       <c r="AS4" s="68"/>
-      <c r="AT4" s="88" t="s">
-        <v>68</v>
+      <c r="AT4" s="94" t="s">
+        <v>79</v>
       </c>
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
       <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
+      <c r="AX4" s="71" t="s">
+        <v>84</v>
+      </c>
       <c r="AY4" s="71"/>
       <c r="AZ4" s="72"/>
-      <c r="BA4" s="87" t="s">
-        <v>69</v>
+      <c r="BA4" s="93" t="s">
+        <v>67</v>
       </c>
       <c r="BB4" s="73"/>
       <c r="BC4" s="73"/>
       <c r="BD4" s="71"/>
-      <c r="BE4" s="76"/>
+      <c r="BE4" s="76" t="s">
+        <v>80</v>
+      </c>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="49"/>
@@ -2251,10 +2274,8 @@
       <c r="BA5" s="37"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11"/>
-      <c r="BD5" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE5" s="92"/>
+      <c r="BD5" s="87"/>
+      <c r="BE5" s="88"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
@@ -2262,7 +2283,7 @@
     <row r="6" spans="1:60" s="3" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="49"/>
@@ -2317,8 +2338,8 @@
       <c r="BA6" s="37"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="94"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="90"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
@@ -2326,7 +2347,7 @@
     <row r="7" spans="1:60" s="3" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="49"/>
@@ -2381,16 +2402,18 @@
       <c r="BA7" s="37"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="94"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="90"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="B8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>4</v>
@@ -2447,21 +2470,19 @@
       <c r="BA8" s="37"/>
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="94"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="90"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
-      <c r="A9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>71</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="11"/>
@@ -2491,14 +2512,16 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="AF9" s="32"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="33"/>
+      <c r="AI9" s="32"/>
       <c r="AJ9" s="37"/>
       <c r="AK9" s="37"/>
       <c r="AL9" s="37"/>
-      <c r="AM9" s="16"/>
+      <c r="AM9" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="9"/>
@@ -2515,19 +2538,21 @@
       <c r="BA9" s="37"/>
       <c r="BB9" s="11"/>
       <c r="BC9" s="11"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="94"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="90"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
     </row>
     <row r="10" spans="1:60" s="3" customFormat="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="11"/>
@@ -2553,11 +2578,11 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="65"/>
-      <c r="AB10" s="9"/>
+      <c r="AB10" s="62"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="37"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="33"/>
@@ -2581,19 +2606,21 @@
       <c r="BA10" s="37"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="94"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="90"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
     </row>
     <row r="11" spans="1:60" s="3" customFormat="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="11"/>
@@ -2606,9 +2633,9 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="32"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
@@ -2619,17 +2646,17 @@
       <c r="Y11" s="37"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="65"/>
-      <c r="AB11" s="62"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="AF11" s="37"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -2641,25 +2668,27 @@
       <c r="AU11" s="10"/>
       <c r="AV11" s="10"/>
       <c r="AW11" s="33"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="32"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
       <c r="BA11" s="37"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="94"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="90"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
     </row>
     <row r="12" spans="1:60" s="3" customFormat="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="11"/>
@@ -2713,19 +2742,21 @@
       <c r="BA12" s="37"/>
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="94"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="90"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
     <row r="13" spans="1:60" s="3" customFormat="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>62</v>
+      <c r="A13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="11"/>
@@ -2740,7 +2771,7 @@
       <c r="N13" s="33"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2755,14 +2786,14 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="34"/>
+      <c r="AF13" s="9"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="9"/>
@@ -2775,23 +2806,25 @@
       <c r="AW13" s="33"/>
       <c r="AX13" s="30"/>
       <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
+      <c r="AZ13" s="32"/>
       <c r="BA13" s="37"/>
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="94"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="90"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
     </row>
     <row r="14" spans="1:60" s="3" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>70</v>
+      <c r="A14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="11"/>
@@ -2804,9 +2837,9 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
       <c r="R14" s="37"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -2821,14 +2854,14 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="31"/>
+      <c r="AF14" s="9"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="9"/>
@@ -2839,25 +2872,25 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="33"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
       <c r="BA14" s="37"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="94"/>
+      <c r="BD14" s="89"/>
+      <c r="BE14" s="90"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
     </row>
     <row r="15" spans="1:60" s="3" customFormat="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>62</v>
+      <c r="B15" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="11"/>
@@ -2887,14 +2920,14 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="34"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="9"/>
@@ -2911,19 +2944,19 @@
       <c r="BA15" s="37"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="94"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="90"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
     </row>
     <row r="16" spans="1:60" s="3" customFormat="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>7</v>
+      <c r="B16" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="11"/>
@@ -2953,14 +2986,14 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="16"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="9"/>
@@ -2970,26 +3003,26 @@
       <c r="AT16" s="9"/>
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="37"/>
       <c r="AY16" s="37"/>
       <c r="AZ16" s="37"/>
       <c r="BA16" s="37"/>
       <c r="BB16" s="11"/>
       <c r="BC16" s="11"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="94"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="90"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
-    <row r="17" spans="1:60" s="3" customFormat="1" collapsed="1">
+    <row r="17" spans="1:60" s="3" customFormat="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>71</v>
+      <c r="B17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="11"/>
@@ -3019,14 +3052,14 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
-      <c r="AF17" s="16"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
       <c r="AP17" s="9"/>
@@ -3043,19 +3076,19 @@
       <c r="BA17" s="37"/>
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="94"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="90"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
     <row r="18" spans="1:60" s="3" customFormat="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>71</v>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="11"/>
@@ -3068,9 +3101,9 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="37"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -3085,15 +3118,15 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="AF18" s="32"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="32"/>
       <c r="AM18" s="37"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -3105,25 +3138,27 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="33"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="32"/>
       <c r="BA18" s="37"/>
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="94"/>
+      <c r="BD18" s="89"/>
+      <c r="BE18" s="90"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
-    <row r="19" spans="1:60" s="3" customFormat="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>62</v>
+    <row r="19" spans="1:60" s="3" customFormat="1" collapsed="1">
+      <c r="A19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="11"/>
@@ -3136,9 +3171,9 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="32"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3153,14 +3188,16 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="34"/>
+      <c r="AF19" s="16"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="37"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="9"/>
@@ -3171,25 +3208,25 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AW19" s="33"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="32"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
       <c r="BA19" s="37"/>
       <c r="BB19" s="11"/>
       <c r="BC19" s="11"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="94"/>
+      <c r="BD19" s="89"/>
+      <c r="BE19" s="90"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
     </row>
     <row r="20" spans="1:60" s="3" customFormat="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>4</v>
+      <c r="B20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="11"/>
@@ -3216,17 +3253,19 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="65"/>
       <c r="AB20" s="62"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="16"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="9"/>
@@ -3236,26 +3275,26 @@
       <c r="AT20" s="9"/>
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="37"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
       <c r="AY20" s="37"/>
       <c r="AZ20" s="37"/>
       <c r="BA20" s="37"/>
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="94"/>
+      <c r="BD20" s="89"/>
+      <c r="BE20" s="90"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
     </row>
     <row r="21" spans="1:60" s="3" customFormat="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>70</v>
+      <c r="B21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="11"/>
@@ -3282,16 +3321,16 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="62"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31" t="s">
-        <v>74</v>
-      </c>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="37"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="AK21" s="37"/>
       <c r="AL21" s="37"/>
       <c r="AM21" s="37"/>
@@ -3311,19 +3350,19 @@
       <c r="BA21" s="37"/>
       <c r="BB21" s="11"/>
       <c r="BC21" s="11"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="94"/>
+      <c r="BD21" s="89"/>
+      <c r="BE21" s="90"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
     <row r="22" spans="1:60" s="3" customFormat="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>70</v>
+      <c r="B22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="11"/>
@@ -3350,19 +3389,19 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="62"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31" t="s">
-        <v>74</v>
-      </c>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="9"/>
@@ -3379,19 +3418,19 @@
       <c r="BA22" s="37"/>
       <c r="BB22" s="11"/>
       <c r="BC22" s="11"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="94"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="90"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
     <row r="23" spans="1:60" s="3" customFormat="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>71</v>
+      <c r="B23" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="11"/>
@@ -3418,11 +3457,11 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="65"/>
       <c r="AB23" s="62"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29" t="s">
-        <v>74</v>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
@@ -3447,83 +3486,87 @@
       <c r="BA23" s="37"/>
       <c r="BB23" s="11"/>
       <c r="BC23" s="11"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="96"/>
+      <c r="BD23" s="89"/>
+      <c r="BE23" s="90"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
-    <row r="24" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:60" s="3" customFormat="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="111"/>
-      <c r="AI24" s="111"/>
-      <c r="AJ24" s="111"/>
-      <c r="AK24" s="111"/>
-      <c r="AL24" s="111"/>
-      <c r="AM24" s="111"/>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="111"/>
-      <c r="AZ24" s="111"/>
-      <c r="BA24" s="111"/>
-      <c r="BB24" s="111"/>
-      <c r="BC24" s="111"/>
-      <c r="BD24" s="111"/>
-      <c r="BE24" s="112"/>
+      <c r="B24" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="89"/>
+      <c r="BE24" s="90"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
-    <row r="25" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:60" s="3" customFormat="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>4</v>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="11"/>
@@ -3546,16 +3589,16 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
-      <c r="Y25" s="34" t="s">
-        <v>64</v>
-      </c>
+      <c r="Y25" s="37"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="65"/>
       <c r="AB25" s="62"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="33"/>
@@ -3579,87 +3622,83 @@
       <c r="BA25" s="37"/>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
-      <c r="BD25" s="74"/>
-      <c r="BE25" s="77"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="92"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
     </row>
     <row r="26" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="16" t="s">
+      <c r="B26" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="74"/>
-      <c r="BE26" s="77"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="109"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="109"/>
+      <c r="AH26" s="109"/>
+      <c r="AI26" s="109"/>
+      <c r="AJ26" s="109"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="109"/>
+      <c r="AM26" s="109"/>
+      <c r="AN26" s="109"/>
+      <c r="AO26" s="109"/>
+      <c r="AP26" s="109"/>
+      <c r="AQ26" s="109"/>
+      <c r="AR26" s="109"/>
+      <c r="AS26" s="109"/>
+      <c r="AT26" s="109"/>
+      <c r="AU26" s="109"/>
+      <c r="AV26" s="109"/>
+      <c r="AW26" s="109"/>
+      <c r="AX26" s="109"/>
+      <c r="AY26" s="109"/>
+      <c r="AZ26" s="109"/>
+      <c r="BA26" s="109"/>
+      <c r="BB26" s="109"/>
+      <c r="BC26" s="109"/>
+      <c r="BD26" s="109"/>
+      <c r="BE26" s="110"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
     <row r="27" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>5</v>
+      <c r="B27" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="11"/>
@@ -3682,8 +3721,8 @@
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
-      <c r="Y27" s="31" t="s">
-        <v>64</v>
+      <c r="Y27" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="Z27" s="11"/>
       <c r="AA27" s="65"/>
@@ -3723,11 +3762,11 @@
     </row>
     <row r="28" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>44</v>
+      <c r="B28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="11"/>
@@ -3747,12 +3786,12 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="31" t="s">
-        <v>31</v>
-      </c>
+      <c r="V28" s="38"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
-      <c r="Y28" s="37"/>
+      <c r="Y28" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="65"/>
       <c r="AB28" s="62"/>
@@ -3789,137 +3828,145 @@
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
     </row>
-    <row r="29" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>41</v>
+    <row r="29" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="16"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="Z29" s="11"/>
       <c r="AA29" s="65"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
       <c r="AN29" s="11"/>
       <c r="AO29" s="11"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
       <c r="BB29" s="11"/>
       <c r="BC29" s="11"/>
-      <c r="BD29" s="36"/>
-      <c r="BE29" s="78"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
     </row>
-    <row r="30" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>41</v>
+    <row r="30" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="16"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="29" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="37"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="65"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="33"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
       <c r="BB30" s="11"/>
       <c r="BC30" s="11"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="78"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="77"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
     </row>
     <row r="31" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B31" s="19" t="s">
-        <v>36</v>
+      <c r="B31" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>41</v>
@@ -3941,9 +3988,9 @@
       <c r="R31" s="16"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29" t="s">
-        <v>31</v>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="W31" s="46"/>
       <c r="X31" s="46"/>
@@ -3982,11 +4029,11 @@
       <c r="BE31" s="78"/>
     </row>
     <row r="32" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B32" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>4</v>
+      <c r="B32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="11"/>
@@ -4002,12 +4049,12 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
+      <c r="R32" s="16"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="34" t="s">
-        <v>42</v>
+      <c r="U32" s="16"/>
+      <c r="V32" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="W32" s="46"/>
       <c r="X32" s="46"/>
@@ -4046,11 +4093,11 @@
       <c r="BE32" s="78"/>
     </row>
     <row r="33" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B33" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>40</v>
+      <c r="B33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="11"/>
@@ -4066,13 +4113,13 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="46"/>
-      <c r="R33" s="31" t="s">
-        <v>42</v>
-      </c>
+      <c r="R33" s="16"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="W33" s="46"/>
       <c r="X33" s="46"/>
       <c r="Y33" s="46"/>
@@ -4109,38 +4156,37 @@
       <c r="BD33" s="36"/>
       <c r="BE33" s="78"/>
     </row>
-    <row r="34" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>5</v>
+    <row r="34" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B34" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="37"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="37"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="65"/>
       <c r="AB34" s="49"/>
@@ -4148,8 +4194,8 @@
       <c r="AD34" s="36"/>
       <c r="AE34" s="36"/>
       <c r="AF34" s="36"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="36"/>
       <c r="AK34" s="36"/>
@@ -4162,8 +4208,8 @@
       <c r="AR34" s="36"/>
       <c r="AS34" s="36"/>
       <c r="AT34" s="36"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
       <c r="AW34" s="36"/>
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
@@ -4171,52 +4217,49 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="11"/>
-      <c r="BD34" s="74"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="78"/>
     </row>
     <row r="35" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>4</v>
+      <c r="B35" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="R35" s="37"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="66"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="65"/>
       <c r="AB35" s="49"/>
       <c r="AC35" s="36"/>
       <c r="AD35" s="36"/>
       <c r="AE35" s="36"/>
       <c r="AF35" s="36"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="36"/>
       <c r="AK35" s="36"/>
@@ -4229,8 +4272,8 @@
       <c r="AR35" s="36"/>
       <c r="AS35" s="36"/>
       <c r="AT35" s="36"/>
-      <c r="AU35" s="10"/>
-      <c r="AV35" s="10"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
       <c r="AW35" s="36"/>
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
@@ -4241,12 +4284,13 @@
       <c r="BD35" s="36"/>
       <c r="BE35" s="78"/>
     </row>
-    <row r="36" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>4</v>
+    <row r="36" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="11"/>
@@ -4254,15 +4298,15 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="34"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34" t="s">
-        <v>33</v>
+      <c r="N36" s="30"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="R36" s="37"/>
       <c r="S36" s="11"/>
@@ -4272,8 +4316,8 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="37"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="66"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="65"/>
       <c r="AB36" s="49"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
@@ -4302,13 +4346,15 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="78"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="77"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
     </row>
-    <row r="37" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B37" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>4</v>
@@ -4324,11 +4370,11 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="34"/>
-      <c r="O37" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="O37" s="34"/>
       <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
+      <c r="Q37" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="R37" s="37"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -4337,8 +4383,8 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
       <c r="Y37" s="37"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="65"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="66"/>
       <c r="AB37" s="49"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
@@ -4367,19 +4413,15 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="11"/>
       <c r="BC37" s="11"/>
-      <c r="BD37" s="74"/>
-      <c r="BE37" s="77"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="78"/>
     </row>
-    <row r="38" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>7</v>
+    <row r="38" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="11"/>
@@ -4388,15 +4430,15 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="16" t="s">
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="32"/>
       <c r="R38" s="37"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -4405,8 +4447,8 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
       <c r="Y38" s="37"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="65"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="66"/>
       <c r="AB38" s="49"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
@@ -4435,19 +4477,16 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
-      <c r="BD38" s="74"/>
-      <c r="BE38" s="77"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="78"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>7</v>
+      <c r="B39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="11"/>
@@ -4456,15 +4495,15 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="32"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
       <c r="R39" s="37"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -4511,11 +4550,11 @@
     </row>
     <row r="40" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>5</v>
+      <c r="B40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="11"/>
@@ -4524,13 +4563,13 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="31"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="31" t="s">
+      <c r="N40" s="30"/>
+      <c r="O40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="37"/>
@@ -4579,10 +4618,10 @@
     </row>
     <row r="41" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="49"/>
@@ -4595,10 +4634,10 @@
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="16" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="30"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="37"/>
@@ -4647,11 +4686,11 @@
     </row>
     <row r="42" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>7</v>
+      <c r="B42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="11"/>
@@ -4660,10 +4699,10 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="16" t="s">
+      <c r="N42" s="31" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="30"/>
@@ -4715,24 +4754,24 @@
     </row>
     <row r="43" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>26</v>
+      <c r="B43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="31"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="31" t="s">
-        <v>31</v>
+      <c r="N43" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
@@ -4783,24 +4822,24 @@
     </row>
     <row r="44" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>5</v>
+      <c r="B44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="30"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="31"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="31" t="s">
-        <v>31</v>
+      <c r="N44" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
@@ -4851,11 +4890,11 @@
     </row>
     <row r="45" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="14"/>
-      <c r="B45" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>7</v>
+      <c r="B45" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="11"/>
@@ -4863,11 +4902,11 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="31"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="29" t="s">
+      <c r="N45" s="31" t="s">
         <v>31</v>
       </c>
       <c r="O45" s="30"/>
@@ -4919,23 +4958,23 @@
     </row>
     <row r="46" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>7</v>
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="30"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="30"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="16"/>
+      <c r="K46" s="31"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="29" t="s">
+      <c r="N46" s="31" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="30"/>
@@ -4987,8 +5026,8 @@
     </row>
     <row r="47" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="14"/>
-      <c r="B47" s="18" t="s">
-        <v>23</v>
+      <c r="B47" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>7</v>
@@ -5000,12 +5039,12 @@
       <c r="H47" s="30"/>
       <c r="I47" s="9"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="K47" s="16"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="32"/>
@@ -5055,25 +5094,25 @@
     </row>
     <row r="48" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="14"/>
-      <c r="B48" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>5</v>
+      <c r="B48" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="K48" s="16"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="33"/>
+      <c r="N48" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="32"/>
@@ -5094,11 +5133,11 @@
       <c r="AF48" s="36"/>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="32"/>
-      <c r="AM48" s="37"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
       <c r="AN48" s="11"/>
       <c r="AO48" s="11"/>
       <c r="AP48" s="36"/>
@@ -5123,25 +5162,25 @@
     </row>
     <row r="49" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="14"/>
-      <c r="B49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>26</v>
+      <c r="B49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="31" t="s">
-        <v>33</v>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="33"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="32"/>
@@ -5162,11 +5201,11 @@
       <c r="AF49" s="36"/>
       <c r="AG49" s="10"/>
       <c r="AH49" s="10"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="32"/>
-      <c r="AM49" s="37"/>
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="36"/>
+      <c r="AM49" s="36"/>
       <c r="AN49" s="11"/>
       <c r="AO49" s="11"/>
       <c r="AP49" s="36"/>
@@ -5176,11 +5215,11 @@
       <c r="AT49" s="36"/>
       <c r="AU49" s="10"/>
       <c r="AV49" s="10"/>
-      <c r="AW49" s="33"/>
-      <c r="AX49" s="30"/>
-      <c r="AY49" s="30"/>
-      <c r="AZ49" s="32"/>
-      <c r="BA49" s="37"/>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="36"/>
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="36"/>
+      <c r="BA49" s="36"/>
       <c r="BB49" s="11"/>
       <c r="BC49" s="11"/>
       <c r="BD49" s="74"/>
@@ -5192,7 +5231,7 @@
     <row r="50" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>5</v>
@@ -5212,7 +5251,7 @@
       <c r="N50" s="33"/>
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="Q50" s="32"/>
       <c r="R50" s="37"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -5233,7 +5272,7 @@
       <c r="AI50" s="33"/>
       <c r="AJ50" s="30"/>
       <c r="AK50" s="30"/>
-      <c r="AL50" s="30"/>
+      <c r="AL50" s="32"/>
       <c r="AM50" s="37"/>
       <c r="AN50" s="11"/>
       <c r="AO50" s="11"/>
@@ -5244,11 +5283,11 @@
       <c r="AT50" s="36"/>
       <c r="AU50" s="10"/>
       <c r="AV50" s="10"/>
-      <c r="AW50" s="33"/>
-      <c r="AX50" s="30"/>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="30"/>
-      <c r="BA50" s="37"/>
+      <c r="AW50" s="36"/>
+      <c r="AX50" s="36"/>
+      <c r="AY50" s="36"/>
+      <c r="AZ50" s="36"/>
+      <c r="BA50" s="36"/>
       <c r="BB50" s="11"/>
       <c r="BC50" s="11"/>
       <c r="BD50" s="74"/>
@@ -5257,24 +5296,24 @@
       <c r="BG50" s="2"/>
       <c r="BH50" s="2"/>
     </row>
-    <row r="51" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A51" s="14"/>
       <c r="B51" s="17" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="33"/>
@@ -5284,7 +5323,7 @@
       <c r="R51" s="37"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="37"/>
+      <c r="U51" s="38"/>
       <c r="V51" s="38"/>
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
@@ -5325,126 +5364,262 @@
       <c r="BG51" s="2"/>
       <c r="BH51" s="2"/>
     </row>
-    <row r="52" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B52" s="56" t="s">
+    <row r="52" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
+      <c r="AM52" s="37"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="36"/>
+      <c r="AR52" s="36"/>
+      <c r="AS52" s="36"/>
+      <c r="AT52" s="36"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="10"/>
+      <c r="AW52" s="33"/>
+      <c r="AX52" s="30"/>
+      <c r="AY52" s="30"/>
+      <c r="AZ52" s="30"/>
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="74"/>
+      <c r="BE52" s="77"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+    </row>
+    <row r="53" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A53" s="14"/>
+      <c r="B53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="37"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="36"/>
+      <c r="AR53" s="36"/>
+      <c r="AS53" s="36"/>
+      <c r="AT53" s="36"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="33"/>
+      <c r="AX53" s="30"/>
+      <c r="AY53" s="30"/>
+      <c r="AZ53" s="32"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="11"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="74"/>
+      <c r="BE53" s="77"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+    </row>
+    <row r="54" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B54" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C54" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D54" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="80"/>
-      <c r="AE52" s="80"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="53"/>
-      <c r="AK52" s="53"/>
-      <c r="AL52" s="53"/>
-      <c r="AM52" s="54"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="52"/>
-      <c r="AQ52" s="53"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="22"/>
-      <c r="AV52" s="22"/>
-      <c r="AW52" s="52"/>
-      <c r="AX52" s="53"/>
-      <c r="AY52" s="53"/>
-      <c r="AZ52" s="53"/>
-      <c r="BA52" s="54"/>
-      <c r="BB52" s="35"/>
-      <c r="BC52" s="35"/>
-      <c r="BD52" s="80"/>
-      <c r="BE52" s="81"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="79"/>
+      <c r="AC54" s="80"/>
+      <c r="AD54" s="80"/>
+      <c r="AE54" s="80"/>
+      <c r="AF54" s="80"/>
+      <c r="AG54" s="22"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="53"/>
+      <c r="AK54" s="53"/>
+      <c r="AL54" s="53"/>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="53"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="22"/>
+      <c r="AV54" s="22"/>
+      <c r="AW54" s="52"/>
+      <c r="AX54" s="53"/>
+      <c r="AY54" s="53"/>
+      <c r="AZ54" s="53"/>
+      <c r="BA54" s="54"/>
+      <c r="BB54" s="35"/>
+      <c r="BC54" s="35"/>
+      <c r="BD54" s="80"/>
+      <c r="BE54" s="81"/>
     </row>
-    <row r="53" spans="1:60" collapsed="1"/>
-    <row r="54" spans="1:60">
-      <c r="D54" s="16"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="16"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="16"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="29"/>
-      <c r="AL54" s="16"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="31"/>
-      <c r="AO54" s="29"/>
-      <c r="AP54" s="16"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="31"/>
-      <c r="AS54" s="29"/>
-      <c r="AT54" s="16"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="31"/>
-      <c r="AW54" s="16"/>
-      <c r="AX54" s="34"/>
-      <c r="AY54" s="31"/>
-      <c r="AZ54" s="29"/>
-      <c r="BA54" s="16"/>
-      <c r="BB54" s="34"/>
-      <c r="BC54" s="31"/>
-      <c r="BD54" s="29"/>
-      <c r="BE54" s="16"/>
+    <row r="55" spans="1:60" collapsed="1"/>
+    <row r="56" spans="1:60">
+      <c r="D56" s="16"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="31"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="31"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="31"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="16"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="31"/>
+      <c r="AS56" s="29"/>
+      <c r="AT56" s="16"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="31"/>
+      <c r="AW56" s="16"/>
+      <c r="AX56" s="34"/>
+      <c r="AY56" s="31"/>
+      <c r="AZ56" s="29"/>
+      <c r="BA56" s="16"/>
+      <c r="BB56" s="34"/>
+      <c r="BC56" s="31"/>
+      <c r="BD56" s="29"/>
+      <c r="BE56" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5452,7 +5627,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="AB2:BE2"/>
-    <mergeCell ref="B24:BE24"/>
+    <mergeCell ref="B26:BE26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート/ガントチャート（プログラム班）.xlsx
+++ b/ガントチャート/ガントチャート（プログラム班）.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$25:$AB$346</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$24:$AB$345</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -514,22 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地形との当たり判定(三角)</t>
-    <rPh sb="0" eb="2">
-      <t>チケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>糸と床の当たり判定</t>
     <rPh sb="0" eb="1">
       <t>イト</t>
@@ -681,10 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いらないかも</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キーコンフィング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -726,6 +706,20 @@
     <t>完</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1873,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH56"/>
+  <dimension ref="A1:BH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1897,12 +1891,12 @@
         <v>42160</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:60">
       <c r="B2" s="98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>3</v>
@@ -1934,7 +1928,7 @@
       <c r="Z2" s="96"/>
       <c r="AA2" s="97"/>
       <c r="AB2" s="104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="105"/>
       <c r="AD2" s="105"/>
@@ -2173,7 +2167,7 @@
       <c r="AD4" s="69"/>
       <c r="AE4" s="68"/>
       <c r="AF4" s="94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" s="70"/>
       <c r="AH4" s="70"/>
@@ -2182,7 +2176,7 @@
       <c r="AK4" s="71"/>
       <c r="AL4" s="72"/>
       <c r="AM4" s="93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN4" s="73"/>
       <c r="AO4" s="73"/>
@@ -2191,24 +2185,24 @@
       <c r="AR4" s="69"/>
       <c r="AS4" s="68"/>
       <c r="AT4" s="94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
       <c r="AW4" s="71"/>
       <c r="AX4" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AY4" s="71"/>
       <c r="AZ4" s="72"/>
       <c r="BA4" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BB4" s="73"/>
       <c r="BC4" s="73"/>
       <c r="BD4" s="71"/>
       <c r="BE4" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
@@ -2216,7 +2210,7 @@
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>58</v>
@@ -2347,7 +2341,7 @@
     <row r="7" spans="1:60" s="3" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="49"/>
@@ -2409,14 +2403,12 @@
       <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>4</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -2446,14 +2438,18 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="AF8" s="32"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
-      <c r="AI8" s="9"/>
+      <c r="AI8" s="32"/>
       <c r="AJ8" s="37"/>
       <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
+      <c r="AL8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
       <c r="AP8" s="9"/>
@@ -2477,12 +2473,14 @@
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60" s="3" customFormat="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>87</v>
+      <c r="A9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="11"/>
@@ -2512,16 +2510,14 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="32"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="32"/>
+      <c r="AI9" s="33"/>
       <c r="AJ9" s="37"/>
       <c r="AK9" s="37"/>
       <c r="AL9" s="37"/>
-      <c r="AM9" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="AM9" s="16"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="9"/>
@@ -2546,13 +2542,13 @@
     </row>
     <row r="10" spans="1:60" s="3" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="11"/>
@@ -2578,11 +2574,11 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="65"/>
-      <c r="AB10" s="62"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="AF10" s="37"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="33"/>
@@ -2614,13 +2610,13 @@
     </row>
     <row r="11" spans="1:60" s="3" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="11"/>
@@ -2633,9 +2629,9 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="37"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
@@ -2646,17 +2642,17 @@
       <c r="Y11" s="37"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="65"/>
-      <c r="AB11" s="9"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="37"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -2668,9 +2664,9 @@
       <c r="AU11" s="10"/>
       <c r="AV11" s="10"/>
       <c r="AW11" s="33"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="32"/>
       <c r="BA11" s="37"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11"/>
@@ -2682,13 +2678,13 @@
     </row>
     <row r="12" spans="1:60" s="3" customFormat="1">
       <c r="A12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="11"/>
@@ -2750,13 +2746,13 @@
     </row>
     <row r="13" spans="1:60" s="3" customFormat="1">
       <c r="A13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="11"/>
@@ -2771,7 +2767,7 @@
       <c r="N13" s="33"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="37"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2790,10 +2786,10 @@
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="9"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="9"/>
@@ -2806,7 +2802,7 @@
       <c r="AW13" s="33"/>
       <c r="AX13" s="30"/>
       <c r="AY13" s="30"/>
-      <c r="AZ13" s="32"/>
+      <c r="AZ13" s="30"/>
       <c r="BA13" s="37"/>
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
@@ -2817,14 +2813,12 @@
       <c r="BH13" s="2"/>
     </row>
     <row r="14" spans="1:60" s="3" customFormat="1">
-      <c r="A14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>61</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="11"/>
@@ -2837,9 +2831,9 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -2858,10 +2852,10 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="9"/>
@@ -2872,9 +2866,9 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="33"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
       <c r="BA14" s="37"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
@@ -2887,10 +2881,10 @@
     <row r="15" spans="1:60" s="3" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="11"/>
@@ -2927,7 +2921,9 @@
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
+      <c r="AM15" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="9"/>
@@ -2952,11 +2948,11 @@
     </row>
     <row r="16" spans="1:60" s="3" customFormat="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>89</v>
+      <c r="B16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="11"/>
@@ -2990,10 +2986,12 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34" t="s">
+        <v>90</v>
+      </c>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="9"/>
@@ -3019,10 +3017,10 @@
     <row r="17" spans="1:60" s="3" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="11"/>
@@ -3035,9 +3033,9 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="37"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -3052,14 +3050,16 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
+      <c r="AF17" s="32"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="37"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
       <c r="AP17" s="9"/>
@@ -3070,9 +3070,9 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AW17" s="33"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37"/>
+      <c r="AX17" s="30"/>
+      <c r="AY17" s="30"/>
+      <c r="AZ17" s="32"/>
       <c r="BA17" s="37"/>
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
@@ -3082,13 +3082,15 @@
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
-    <row r="18" spans="1:60" s="3" customFormat="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>61</v>
+    <row r="18" spans="1:60" s="3" customFormat="1" collapsed="1">
+      <c r="A18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="11"/>
@@ -3101,9 +3103,9 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="32"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -3118,16 +3120,16 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="32"/>
+      <c r="AF18" s="16"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="37"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="9"/>
@@ -3138,9 +3140,9 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="33"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="32"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
       <c r="BA18" s="37"/>
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
@@ -3150,15 +3152,13 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
-    <row r="19" spans="1:60" s="3" customFormat="1" collapsed="1">
-      <c r="A19" s="14" t="s">
-        <v>82</v>
-      </c>
+    <row r="19" spans="1:60" s="3" customFormat="1">
+      <c r="A19" s="14"/>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="11"/>
@@ -3192,12 +3192,12 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="AJ19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="9"/>
@@ -3207,8 +3207,8 @@
       <c r="AT19" s="9"/>
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="37"/>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
       <c r="AY19" s="37"/>
       <c r="AZ19" s="37"/>
       <c r="BA19" s="37"/>
@@ -3223,10 +3223,10 @@
     <row r="20" spans="1:60" s="3" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="11"/>
@@ -3261,7 +3261,7 @@
       <c r="AH20" s="10"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK20" s="37"/>
       <c r="AL20" s="37"/>
@@ -3275,8 +3275,8 @@
       <c r="AT20" s="9"/>
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="37"/>
       <c r="AY20" s="37"/>
       <c r="AZ20" s="37"/>
       <c r="BA20" s="37"/>
@@ -3290,11 +3290,11 @@
     </row>
     <row r="21" spans="1:60" s="3" customFormat="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>69</v>
+      <c r="B21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="11"/>
@@ -3321,19 +3321,19 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="62"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="16"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
       <c r="AP21" s="9"/>
@@ -3358,11 +3358,11 @@
     </row>
     <row r="22" spans="1:60" s="3" customFormat="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>4</v>
+      <c r="B22" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="11"/>
@@ -3389,19 +3389,19 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="62"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="9"/>
@@ -3427,10 +3427,10 @@
     <row r="23" spans="1:60" s="3" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="11"/>
@@ -3461,7 +3461,7 @@
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="24" spans="1:60" s="3" customFormat="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="49"/>
@@ -3525,11 +3525,11 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="65"/>
       <c r="AB24" s="62"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31" t="s">
-        <v>71</v>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
@@ -3554,151 +3554,151 @@
       <c r="BA24" s="37"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="89"/>
-      <c r="BE24" s="90"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="92"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
-    <row r="25" spans="1:60" s="3" customFormat="1">
+    <row r="25" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
-      <c r="AZ25" s="37"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="91"/>
-      <c r="BE25" s="92"/>
+      <c r="B25" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="108"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="109"/>
+      <c r="AH25" s="109"/>
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="109"/>
+      <c r="AK25" s="109"/>
+      <c r="AL25" s="109"/>
+      <c r="AM25" s="109"/>
+      <c r="AN25" s="109"/>
+      <c r="AO25" s="109"/>
+      <c r="AP25" s="109"/>
+      <c r="AQ25" s="109"/>
+      <c r="AR25" s="109"/>
+      <c r="AS25" s="109"/>
+      <c r="AT25" s="109"/>
+      <c r="AU25" s="109"/>
+      <c r="AV25" s="109"/>
+      <c r="AW25" s="109"/>
+      <c r="AX25" s="109"/>
+      <c r="AY25" s="109"/>
+      <c r="AZ25" s="109"/>
+      <c r="BA25" s="109"/>
+      <c r="BB25" s="109"/>
+      <c r="BC25" s="109"/>
+      <c r="BD25" s="109"/>
+      <c r="BE25" s="110"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
     </row>
     <row r="26" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="109"/>
-      <c r="AJ26" s="109"/>
-      <c r="AK26" s="109"/>
-      <c r="AL26" s="109"/>
-      <c r="AM26" s="109"/>
-      <c r="AN26" s="109"/>
-      <c r="AO26" s="109"/>
-      <c r="AP26" s="109"/>
-      <c r="AQ26" s="109"/>
-      <c r="AR26" s="109"/>
-      <c r="AS26" s="109"/>
-      <c r="AT26" s="109"/>
-      <c r="AU26" s="109"/>
-      <c r="AV26" s="109"/>
-      <c r="AW26" s="109"/>
-      <c r="AX26" s="109"/>
-      <c r="AY26" s="109"/>
-      <c r="AZ26" s="109"/>
-      <c r="BA26" s="109"/>
-      <c r="BB26" s="109"/>
-      <c r="BC26" s="109"/>
-      <c r="BD26" s="109"/>
-      <c r="BE26" s="110"/>
+      <c r="B26" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="77"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
     <row r="27" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>4</v>
+      <c r="B27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="11"/>
@@ -3721,8 +3721,8 @@
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
-      <c r="Y27" s="34" t="s">
-        <v>63</v>
+      <c r="Y27" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="Z27" s="11"/>
       <c r="AA27" s="65"/>
@@ -3762,11 +3762,11 @@
     </row>
     <row r="28" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>7</v>
+      <c r="B28" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="11"/>
@@ -3789,8 +3789,8 @@
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
-      <c r="Y28" s="16" t="s">
-        <v>63</v>
+      <c r="Y28" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="65"/>
@@ -3831,10 +3831,10 @@
     <row r="29" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A29" s="14"/>
       <c r="B29" s="59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="11"/>
@@ -3854,12 +3854,12 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
+      <c r="V29" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
-      <c r="Y29" s="31" t="s">
-        <v>63</v>
-      </c>
+      <c r="Y29" s="37"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="65"/>
       <c r="AB29" s="62"/>
@@ -3896,77 +3896,73 @@
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
     </row>
-    <row r="30" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>44</v>
+    <row r="30" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="37"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="65"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="37"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
       <c r="BB30" s="11"/>
       <c r="BC30" s="11"/>
-      <c r="BD30" s="74"/>
-      <c r="BE30" s="77"/>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="2"/>
-      <c r="BH30" s="2"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30" s="78"/>
     </row>
     <row r="31" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B31" s="18" t="s">
-        <v>38</v>
+      <c r="B31" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>41</v>
@@ -3989,8 +3985,8 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="16" t="s">
-        <v>42</v>
+      <c r="V31" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="W31" s="46"/>
       <c r="X31" s="46"/>
@@ -4030,7 +4026,7 @@
     </row>
     <row r="32" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B32" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>41</v>
@@ -4052,7 +4048,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="16"/>
+      <c r="U32" s="29"/>
       <c r="V32" s="29" t="s">
         <v>31</v>
       </c>
@@ -4093,11 +4089,11 @@
       <c r="BE32" s="78"/>
     </row>
     <row r="33" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>41</v>
+      <c r="B33" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="11"/>
@@ -4113,12 +4109,12 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="46"/>
-      <c r="R33" s="16"/>
+      <c r="R33" s="46"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29" t="s">
-        <v>31</v>
+      <c r="U33" s="46"/>
+      <c r="V33" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="W33" s="46"/>
       <c r="X33" s="46"/>
@@ -4157,11 +4153,11 @@
       <c r="BE33" s="78"/>
     </row>
     <row r="34" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B34" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>4</v>
+      <c r="B34" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="11"/>
@@ -4177,13 +4173,13 @@
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
+      <c r="R34" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="46"/>
-      <c r="V34" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="V34" s="46"/>
       <c r="W34" s="46"/>
       <c r="X34" s="46"/>
       <c r="Y34" s="46"/>
@@ -4220,37 +4216,38 @@
       <c r="BD34" s="36"/>
       <c r="BE34" s="78"/>
     </row>
-    <row r="35" spans="1:60" hidden="1" outlineLevel="1">
-      <c r="B35" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>40</v>
+    <row r="35" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="31" t="s">
-        <v>42</v>
-      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="37"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="37"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="65"/>
       <c r="AB35" s="49"/>
@@ -4258,8 +4255,8 @@
       <c r="AD35" s="36"/>
       <c r="AE35" s="36"/>
       <c r="AF35" s="36"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="36"/>
       <c r="AK35" s="36"/>
@@ -4272,8 +4269,8 @@
       <c r="AR35" s="36"/>
       <c r="AS35" s="36"/>
       <c r="AT35" s="36"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="11"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
       <c r="AW35" s="36"/>
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
@@ -4281,16 +4278,18 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="11"/>
       <c r="BC35" s="11"/>
-      <c r="BD35" s="36"/>
-      <c r="BE35" s="78"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="77"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
     </row>
-    <row r="36" spans="1:60" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>5</v>
+    <row r="36" spans="1:60" hidden="1" outlineLevel="1">
+      <c r="B36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="11"/>
@@ -4298,15 +4297,15 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31" t="s">
-        <v>39</v>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="R36" s="37"/>
       <c r="S36" s="11"/>
@@ -4316,8 +4315,8 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="37"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="65"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="66"/>
       <c r="AB36" s="49"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
@@ -4346,15 +4345,12 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
-      <c r="BD36" s="74"/>
-      <c r="BE36" s="77"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="78"/>
     </row>
     <row r="37" spans="1:60" hidden="1" outlineLevel="1">
       <c r="B37" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>4</v>
@@ -4416,9 +4412,10 @@
       <c r="BD37" s="36"/>
       <c r="BE37" s="78"/>
     </row>
-    <row r="38" spans="1:60" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A38" s="14"/>
       <c r="B38" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>4</v>
@@ -4434,11 +4431,11 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="O38" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="P38" s="34"/>
-      <c r="Q38" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q38" s="34"/>
       <c r="R38" s="37"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -4447,8 +4444,8 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
       <c r="Y38" s="37"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="66"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="65"/>
       <c r="AB38" s="49"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
@@ -4477,16 +4474,19 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
-      <c r="BD38" s="36"/>
-      <c r="BE38" s="78"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="77"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>4</v>
+      <c r="B39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="11"/>
@@ -4495,15 +4495,15 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="34"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="37"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -4551,7 +4551,7 @@
     <row r="40" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="14"/>
       <c r="B40" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>7</v>
@@ -4618,11 +4618,11 @@
     </row>
     <row r="41" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>7</v>
+      <c r="B41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="11"/>
@@ -4631,13 +4631,13 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="16" t="s">
+      <c r="N41" s="31" t="s">
         <v>33</v>
       </c>
+      <c r="O41" s="30"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="37"/>
@@ -4686,11 +4686,11 @@
     </row>
     <row r="42" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>5</v>
+      <c r="B42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="11"/>
@@ -4699,10 +4699,10 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="31"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="31" t="s">
+      <c r="N42" s="16" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="30"/>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="43" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="14"/>
-      <c r="B43" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="49"/>
@@ -4822,24 +4822,24 @@
     </row>
     <row r="44" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>7</v>
+      <c r="B44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="16" t="s">
-        <v>33</v>
+      <c r="N44" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
@@ -4891,15 +4891,15 @@
     <row r="45" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="14"/>
       <c r="B45" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="30"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -4958,23 +4958,23 @@
     </row>
     <row r="46" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>5</v>
+      <c r="B46" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="31"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="31" t="s">
+      <c r="N46" s="29" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="30"/>
@@ -5027,7 +5027,7 @@
     <row r="47" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="14"/>
       <c r="B47" s="19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>7</v>
@@ -5038,7 +5038,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="16"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="16"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -5094,8 +5094,8 @@
     </row>
     <row r="48" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="14"/>
-      <c r="B48" s="19" t="s">
-        <v>28</v>
+      <c r="B48" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>7</v>
@@ -5106,13 +5106,13 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N48" s="30"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="32"/>
@@ -5162,25 +5162,25 @@
     </row>
     <row r="49" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="14"/>
-      <c r="B49" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>7</v>
+      <c r="B49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16" t="s">
-        <v>31</v>
+      <c r="J49" s="9"/>
+      <c r="K49" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="30"/>
+      <c r="N49" s="33"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="32"/>
@@ -5201,11 +5201,11 @@
       <c r="AF49" s="36"/>
       <c r="AG49" s="10"/>
       <c r="AH49" s="10"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36"/>
-      <c r="AM49" s="36"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="37"/>
       <c r="AN49" s="11"/>
       <c r="AO49" s="11"/>
       <c r="AP49" s="36"/>
@@ -5231,10 +5231,10 @@
     <row r="50" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="11"/>
@@ -5283,11 +5283,11 @@
       <c r="AT50" s="36"/>
       <c r="AU50" s="10"/>
       <c r="AV50" s="10"/>
-      <c r="AW50" s="36"/>
-      <c r="AX50" s="36"/>
-      <c r="AY50" s="36"/>
-      <c r="AZ50" s="36"/>
-      <c r="BA50" s="36"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="30"/>
+      <c r="AY50" s="30"/>
+      <c r="AZ50" s="32"/>
+      <c r="BA50" s="37"/>
       <c r="BB50" s="11"/>
       <c r="BC50" s="11"/>
       <c r="BD50" s="74"/>
@@ -5299,10 +5299,10 @@
     <row r="51" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A51" s="14"/>
       <c r="B51" s="17" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="11"/>
@@ -5319,7 +5319,7 @@
       <c r="N51" s="33"/>
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="32"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="37"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -5340,7 +5340,7 @@
       <c r="AI51" s="33"/>
       <c r="AJ51" s="30"/>
       <c r="AK51" s="30"/>
-      <c r="AL51" s="32"/>
+      <c r="AL51" s="30"/>
       <c r="AM51" s="37"/>
       <c r="AN51" s="11"/>
       <c r="AO51" s="11"/>
@@ -5354,7 +5354,7 @@
       <c r="AW51" s="33"/>
       <c r="AX51" s="30"/>
       <c r="AY51" s="30"/>
-      <c r="AZ51" s="32"/>
+      <c r="AZ51" s="30"/>
       <c r="BA51" s="37"/>
       <c r="BB51" s="11"/>
       <c r="BC51" s="11"/>
@@ -5364,34 +5364,34 @@
       <c r="BG51" s="2"/>
       <c r="BH51" s="2"/>
     </row>
-    <row r="52" spans="1:60" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A52" s="14"/>
       <c r="B52" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="9"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="33"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="37"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="38"/>
+      <c r="U52" s="37"/>
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
@@ -5408,7 +5408,7 @@
       <c r="AI52" s="33"/>
       <c r="AJ52" s="30"/>
       <c r="AK52" s="30"/>
-      <c r="AL52" s="30"/>
+      <c r="AL52" s="32"/>
       <c r="AM52" s="37"/>
       <c r="AN52" s="11"/>
       <c r="AO52" s="11"/>
@@ -5422,7 +5422,7 @@
       <c r="AW52" s="33"/>
       <c r="AX52" s="30"/>
       <c r="AY52" s="30"/>
-      <c r="AZ52" s="30"/>
+      <c r="AZ52" s="32"/>
       <c r="BA52" s="37"/>
       <c r="BB52" s="11"/>
       <c r="BC52" s="11"/>
@@ -5432,194 +5432,126 @@
       <c r="BG52" s="2"/>
       <c r="BH52" s="2"/>
     </row>
-    <row r="53" spans="1:60" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="37"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="36"/>
-      <c r="AR53" s="36"/>
-      <c r="AS53" s="36"/>
-      <c r="AT53" s="36"/>
-      <c r="AU53" s="10"/>
-      <c r="AV53" s="10"/>
-      <c r="AW53" s="33"/>
-      <c r="AX53" s="30"/>
-      <c r="AY53" s="30"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="37"/>
-      <c r="BB53" s="11"/>
-      <c r="BC53" s="11"/>
-      <c r="BD53" s="74"/>
-      <c r="BE53" s="77"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
+    <row r="53" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B53" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="79"/>
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="53"/>
+      <c r="AL53" s="53"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="53"/>
+      <c r="AR53" s="21"/>
+      <c r="AS53" s="21"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="22"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="52"/>
+      <c r="AX53" s="53"/>
+      <c r="AY53" s="53"/>
+      <c r="AZ53" s="53"/>
+      <c r="BA53" s="54"/>
+      <c r="BB53" s="35"/>
+      <c r="BC53" s="35"/>
+      <c r="BD53" s="80"/>
+      <c r="BE53" s="81"/>
     </row>
-    <row r="54" spans="1:60" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B54" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="80"/>
-      <c r="AD54" s="80"/>
-      <c r="AE54" s="80"/>
-      <c r="AF54" s="80"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="53"/>
-      <c r="AK54" s="53"/>
-      <c r="AL54" s="53"/>
-      <c r="AM54" s="54"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="52"/>
-      <c r="AQ54" s="53"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="22"/>
-      <c r="AV54" s="22"/>
-      <c r="AW54" s="52"/>
-      <c r="AX54" s="53"/>
-      <c r="AY54" s="53"/>
-      <c r="AZ54" s="53"/>
-      <c r="BA54" s="54"/>
-      <c r="BB54" s="35"/>
-      <c r="BC54" s="35"/>
-      <c r="BD54" s="80"/>
-      <c r="BE54" s="81"/>
-    </row>
-    <row r="55" spans="1:60" collapsed="1"/>
-    <row r="56" spans="1:60">
-      <c r="D56" s="16"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="16"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="31"/>
-      <c r="AK56" s="29"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="34"/>
-      <c r="AN56" s="31"/>
-      <c r="AO56" s="29"/>
-      <c r="AP56" s="16"/>
-      <c r="AQ56" s="34"/>
-      <c r="AR56" s="31"/>
-      <c r="AS56" s="29"/>
-      <c r="AT56" s="16"/>
-      <c r="AU56" s="34"/>
-      <c r="AV56" s="31"/>
-      <c r="AW56" s="16"/>
-      <c r="AX56" s="34"/>
-      <c r="AY56" s="31"/>
-      <c r="AZ56" s="29"/>
-      <c r="BA56" s="16"/>
-      <c r="BB56" s="34"/>
-      <c r="BC56" s="31"/>
-      <c r="BD56" s="29"/>
-      <c r="BE56" s="16"/>
+    <row r="54" spans="1:60" collapsed="1"/>
+    <row r="55" spans="1:60">
+      <c r="D55" s="16"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="31"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="31"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="31"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="31"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="16"/>
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="31"/>
+      <c r="AW55" s="16"/>
+      <c r="AX55" s="34"/>
+      <c r="AY55" s="31"/>
+      <c r="AZ55" s="29"/>
+      <c r="BA55" s="16"/>
+      <c r="BB55" s="34"/>
+      <c r="BC55" s="31"/>
+      <c r="BD55" s="29"/>
+      <c r="BE55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5627,7 +5559,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="AB2:BE2"/>
-    <mergeCell ref="B26:BE26"/>
+    <mergeCell ref="B25:BE25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
